--- a/inst/extdata/martysweight.xlsx
+++ b/inst/extdata/martysweight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_stuff\Martysweight\spliney\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrkmartongmailcom.sharepoint.com/sites/-/Shared Documents/General/Stats_R/R/Martysweight/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F102E521-F1A2-407A-A6A3-36972B24CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{F102E521-F1A2-407A-A6A3-36972B24CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCD827F4-92FA-4031-BBE1-FBE1D4E6A0B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -75,18 +79,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,9 +105,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G1144"/>
+  <dimension ref="A1:G1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1144" sqref="A1144:G1144"/>
+      <pane ySplit="1" topLeftCell="A1165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W1176" sqref="W1176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27600,48 +27598,48 @@
       </c>
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1142" s="1">
+      <c r="A1142" s="5">
         <v>44796</v>
       </c>
-      <c r="B1142">
+      <c r="B1142" s="6">
         <v>8</v>
       </c>
-      <c r="C1142">
-        <v>30</v>
-      </c>
-      <c r="D1142">
+      <c r="C1142" s="6">
+        <v>30</v>
+      </c>
+      <c r="D1142" s="6">
         <v>10</v>
       </c>
-      <c r="E1142">
-        <v>30</v>
-      </c>
-      <c r="F1142" s="4">
+      <c r="E1142" s="6">
+        <v>30</v>
+      </c>
+      <c r="F1142" s="7">
         <v>85.8</v>
       </c>
-      <c r="G1142">
+      <c r="G1142" s="6">
         <v>214</v>
       </c>
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1143" s="1">
+      <c r="A1143" s="5">
         <v>44817</v>
       </c>
-      <c r="B1143">
+      <c r="B1143" s="6">
         <v>12</v>
       </c>
-      <c r="C1143">
-        <v>20</v>
-      </c>
-      <c r="D1143">
-        <v>0</v>
-      </c>
-      <c r="E1143">
-        <v>0</v>
-      </c>
-      <c r="F1143" s="4">
+      <c r="C1143" s="6">
+        <v>20</v>
+      </c>
+      <c r="D1143" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1143" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1143" s="7">
         <v>86.2</v>
       </c>
-      <c r="G1143">
+      <c r="G1143" s="6">
         <v>215</v>
       </c>
     </row>
@@ -27666,6 +27664,890 @@
       </c>
       <c r="G1144" s="6">
         <v>216</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1145" s="5">
+        <v>44820</v>
+      </c>
+      <c r="B1145" s="6">
+        <v>11</v>
+      </c>
+      <c r="C1145" s="6">
+        <v>20</v>
+      </c>
+      <c r="D1145" s="6">
+        <v>19</v>
+      </c>
+      <c r="E1145" s="6">
+        <v>20</v>
+      </c>
+      <c r="F1145" s="7">
+        <v>84.4</v>
+      </c>
+      <c r="G1145" s="6"/>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1146" s="5">
+        <v>44821</v>
+      </c>
+      <c r="B1146" s="6">
+        <v>8</v>
+      </c>
+      <c r="C1146" s="6">
+        <v>30</v>
+      </c>
+      <c r="D1146" s="6">
+        <v>16</v>
+      </c>
+      <c r="E1146" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1146" s="7">
+        <v>84.5</v>
+      </c>
+      <c r="G1146" s="6"/>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1147" s="5">
+        <v>44821</v>
+      </c>
+      <c r="B1147" s="6">
+        <v>13</v>
+      </c>
+      <c r="C1147" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1147" s="6">
+        <v>20</v>
+      </c>
+      <c r="E1147" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1147" s="7">
+        <v>84.5</v>
+      </c>
+      <c r="G1147" s="6"/>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1148" s="5">
+        <v>44821</v>
+      </c>
+      <c r="B1148" s="6">
+        <v>15</v>
+      </c>
+      <c r="C1148" s="6">
+        <v>45</v>
+      </c>
+      <c r="D1148" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1148" s="6">
+        <v>45</v>
+      </c>
+      <c r="F1148" s="7">
+        <v>85.1</v>
+      </c>
+      <c r="G1148" s="6"/>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1149" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B1149">
+        <v>7</v>
+      </c>
+      <c r="C1149">
+        <v>55</v>
+      </c>
+      <c r="D1149">
+        <v>9</v>
+      </c>
+      <c r="E1149">
+        <v>55</v>
+      </c>
+      <c r="F1149" s="4">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1150" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B1150">
+        <v>7</v>
+      </c>
+      <c r="C1150">
+        <v>55</v>
+      </c>
+      <c r="D1150">
+        <v>9</v>
+      </c>
+      <c r="E1150">
+        <v>55</v>
+      </c>
+      <c r="F1150" s="4">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1151" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B1151">
+        <v>7</v>
+      </c>
+      <c r="C1151">
+        <v>55</v>
+      </c>
+      <c r="D1151">
+        <v>9</v>
+      </c>
+      <c r="E1151">
+        <v>55</v>
+      </c>
+      <c r="F1151" s="4">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1152" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B1152">
+        <v>8</v>
+      </c>
+      <c r="C1152">
+        <v>25</v>
+      </c>
+      <c r="D1152">
+        <v>12</v>
+      </c>
+      <c r="E1152">
+        <v>55</v>
+      </c>
+      <c r="F1152" s="4">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1153" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B1153">
+        <v>11</v>
+      </c>
+      <c r="C1153">
+        <v>30</v>
+      </c>
+      <c r="D1153">
+        <v>16</v>
+      </c>
+      <c r="E1153">
+        <v>0</v>
+      </c>
+      <c r="F1153" s="4">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1154" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B1154">
+        <v>13</v>
+      </c>
+      <c r="C1154">
+        <v>15</v>
+      </c>
+      <c r="D1154">
+        <v>17</v>
+      </c>
+      <c r="E1154">
+        <v>15</v>
+      </c>
+      <c r="F1154" s="4">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1155" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B1155">
+        <v>11</v>
+      </c>
+      <c r="C1155">
+        <v>15</v>
+      </c>
+      <c r="D1155">
+        <v>13</v>
+      </c>
+      <c r="E1155">
+        <v>15</v>
+      </c>
+      <c r="F1155" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1156" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B1156">
+        <v>11</v>
+      </c>
+      <c r="C1156">
+        <v>15</v>
+      </c>
+      <c r="D1156">
+        <v>15</v>
+      </c>
+      <c r="E1156">
+        <v>15</v>
+      </c>
+      <c r="F1156" s="4">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1157" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B1157">
+        <v>12</v>
+      </c>
+      <c r="C1157">
+        <v>0</v>
+      </c>
+      <c r="D1157">
+        <v>20</v>
+      </c>
+      <c r="E1157">
+        <v>0</v>
+      </c>
+      <c r="F1157" s="4">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1158" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B1158">
+        <v>10</v>
+      </c>
+      <c r="C1158">
+        <v>30</v>
+      </c>
+      <c r="D1158">
+        <v>15</v>
+      </c>
+      <c r="E1158">
+        <v>30</v>
+      </c>
+      <c r="F1158" s="4">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1159" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B1159">
+        <v>13</v>
+      </c>
+      <c r="C1159">
+        <v>45</v>
+      </c>
+      <c r="D1159">
+        <v>18</v>
+      </c>
+      <c r="E1159">
+        <v>45</v>
+      </c>
+      <c r="F1159" s="4">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1160" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B1160">
+        <v>11</v>
+      </c>
+      <c r="C1160">
+        <v>25</v>
+      </c>
+      <c r="D1160">
+        <v>12</v>
+      </c>
+      <c r="E1160">
+        <v>25</v>
+      </c>
+      <c r="F1160" s="4">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1161" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B1161">
+        <v>12</v>
+      </c>
+      <c r="C1161">
+        <v>5</v>
+      </c>
+      <c r="D1161">
+        <v>17</v>
+      </c>
+      <c r="E1161">
+        <v>5</v>
+      </c>
+      <c r="F1161" s="4">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1162" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B1162">
+        <v>14</v>
+      </c>
+      <c r="C1162">
+        <v>15</v>
+      </c>
+      <c r="D1162">
+        <v>0</v>
+      </c>
+      <c r="E1162">
+        <v>0</v>
+      </c>
+      <c r="F1162" s="4">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1163" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B1163">
+        <v>13</v>
+      </c>
+      <c r="C1163">
+        <v>10</v>
+      </c>
+      <c r="D1163">
+        <v>17</v>
+      </c>
+      <c r="E1163">
+        <v>40</v>
+      </c>
+      <c r="F1163" s="4">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1164" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B1164">
+        <v>18</v>
+      </c>
+      <c r="C1164">
+        <v>40</v>
+      </c>
+      <c r="D1164">
+        <v>5</v>
+      </c>
+      <c r="E1164">
+        <v>10</v>
+      </c>
+      <c r="F1164" s="4">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1165" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B1165">
+        <v>10</v>
+      </c>
+      <c r="C1165">
+        <v>45</v>
+      </c>
+      <c r="D1165">
+        <v>15</v>
+      </c>
+      <c r="E1165">
+        <v>45</v>
+      </c>
+      <c r="F1165" s="4">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1166" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B1166">
+        <v>8</v>
+      </c>
+      <c r="C1166">
+        <v>50</v>
+      </c>
+      <c r="D1166">
+        <v>13</v>
+      </c>
+      <c r="E1166">
+        <v>35</v>
+      </c>
+      <c r="F1166" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1167" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B1167">
+        <v>14</v>
+      </c>
+      <c r="C1167">
+        <v>15</v>
+      </c>
+      <c r="D1167">
+        <v>19</v>
+      </c>
+      <c r="E1167">
+        <v>15</v>
+      </c>
+      <c r="F1167" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1168" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B1168">
+        <v>21</v>
+      </c>
+      <c r="C1168">
+        <v>10</v>
+      </c>
+      <c r="D1168">
+        <v>6</v>
+      </c>
+      <c r="E1168">
+        <v>10</v>
+      </c>
+      <c r="F1168" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1169" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B1169">
+        <v>8</v>
+      </c>
+      <c r="C1169">
+        <v>10</v>
+      </c>
+      <c r="D1169">
+        <v>17</v>
+      </c>
+      <c r="E1169">
+        <v>10</v>
+      </c>
+      <c r="F1169" s="4">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1170" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B1170">
+        <v>9</v>
+      </c>
+      <c r="C1170">
+        <v>35</v>
+      </c>
+      <c r="D1170">
+        <v>11</v>
+      </c>
+      <c r="E1170">
+        <v>35</v>
+      </c>
+      <c r="F1170" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1171" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B1171">
+        <v>11</v>
+      </c>
+      <c r="C1171">
+        <v>38</v>
+      </c>
+      <c r="D1171">
+        <v>16</v>
+      </c>
+      <c r="E1171">
+        <v>20</v>
+      </c>
+      <c r="F1171" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1172" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B1172">
+        <v>8</v>
+      </c>
+      <c r="C1172">
+        <v>30</v>
+      </c>
+      <c r="D1172">
+        <v>11</v>
+      </c>
+      <c r="E1172">
+        <v>30</v>
+      </c>
+      <c r="F1172" s="4">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1173" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B1173">
+        <v>8</v>
+      </c>
+      <c r="C1173">
+        <v>0</v>
+      </c>
+      <c r="D1173">
+        <v>10</v>
+      </c>
+      <c r="E1173">
+        <v>30</v>
+      </c>
+      <c r="F1173" s="4">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1174" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B1174">
+        <v>9</v>
+      </c>
+      <c r="C1174">
+        <v>0</v>
+      </c>
+      <c r="D1174">
+        <v>15</v>
+      </c>
+      <c r="E1174">
+        <v>0</v>
+      </c>
+      <c r="F1174" s="4">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1175" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B1175">
+        <v>7</v>
+      </c>
+      <c r="C1175">
+        <v>20</v>
+      </c>
+      <c r="D1175">
+        <v>12</v>
+      </c>
+      <c r="E1175">
+        <v>0</v>
+      </c>
+      <c r="F1175" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1176" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B1176">
+        <v>6</v>
+      </c>
+      <c r="C1176">
+        <v>50</v>
+      </c>
+      <c r="D1176">
+        <v>9</v>
+      </c>
+      <c r="E1176">
+        <v>50</v>
+      </c>
+      <c r="F1176" s="4">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1177" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B1177">
+        <v>8</v>
+      </c>
+      <c r="C1177">
+        <v>50</v>
+      </c>
+      <c r="D1177">
+        <v>12</v>
+      </c>
+      <c r="E1177">
+        <v>30</v>
+      </c>
+      <c r="F1177" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1178" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B1178">
+        <v>7</v>
+      </c>
+      <c r="C1178">
+        <v>25</v>
+      </c>
+      <c r="D1178">
+        <v>10</v>
+      </c>
+      <c r="E1178">
+        <v>25</v>
+      </c>
+      <c r="F1178" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1179" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B1179">
+        <v>7</v>
+      </c>
+      <c r="C1179">
+        <v>45</v>
+      </c>
+      <c r="D1179">
+        <v>10</v>
+      </c>
+      <c r="E1179">
+        <v>45</v>
+      </c>
+      <c r="F1179" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1180" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B1180">
+        <v>9</v>
+      </c>
+      <c r="C1180">
+        <v>30</v>
+      </c>
+      <c r="D1180">
+        <v>13</v>
+      </c>
+      <c r="E1180">
+        <v>30</v>
+      </c>
+      <c r="F1180" s="4">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1181" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B1181">
+        <v>9</v>
+      </c>
+      <c r="C1181">
+        <v>0</v>
+      </c>
+      <c r="D1181">
+        <v>12</v>
+      </c>
+      <c r="E1181">
+        <v>0</v>
+      </c>
+      <c r="F1181" s="4">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1182" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B1182">
+        <v>7</v>
+      </c>
+      <c r="C1182">
+        <v>30</v>
+      </c>
+      <c r="D1182">
+        <v>17</v>
+      </c>
+      <c r="E1182">
+        <v>30</v>
+      </c>
+      <c r="F1182" s="4">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1183" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B1183">
+        <v>10</v>
+      </c>
+      <c r="C1183">
+        <v>40</v>
+      </c>
+      <c r="D1183">
+        <v>14</v>
+      </c>
+      <c r="E1183">
+        <v>30</v>
+      </c>
+      <c r="F1183" s="4">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1184" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B1184">
+        <v>8</v>
+      </c>
+      <c r="C1184">
+        <v>0</v>
+      </c>
+      <c r="D1184">
+        <v>13</v>
+      </c>
+      <c r="E1184">
+        <v>0</v>
+      </c>
+      <c r="F1184" s="4">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1185" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B1185">
+        <v>7</v>
+      </c>
+      <c r="C1185">
+        <v>20</v>
+      </c>
+      <c r="D1185">
+        <v>10</v>
+      </c>
+      <c r="E1185">
+        <v>20</v>
+      </c>
+      <c r="F1185" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1186" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B1186">
+        <v>8</v>
+      </c>
+      <c r="C1186">
+        <v>30</v>
+      </c>
+      <c r="D1186">
+        <v>11</v>
+      </c>
+      <c r="E1186">
+        <v>30</v>
+      </c>
+      <c r="F1186" s="4">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1187" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B1187">
+        <v>6</v>
+      </c>
+      <c r="C1187">
+        <v>20</v>
+      </c>
+      <c r="D1187">
+        <v>10</v>
+      </c>
+      <c r="E1187">
+        <v>20</v>
+      </c>
+      <c r="F1187" s="4">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1188" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B1188">
+        <v>7</v>
+      </c>
+      <c r="C1188">
+        <v>50</v>
+      </c>
+      <c r="D1188">
+        <v>10</v>
+      </c>
+      <c r="E1188">
+        <v>50</v>
+      </c>
+      <c r="F1188" s="4">
+        <v>85.8</v>
       </c>
     </row>
   </sheetData>
@@ -27678,17 +28560,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a95d4ba5-ac50-4ccb-8f38-68d250b34105" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3073c576-dbcc-4dca-a8e5-ccf7a0688d93">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f18153fd1d4a92a787a9d9e562be6d1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" xmlns:ns3="a95d4ba5-ac50-4ccb-8f38-68d250b34105" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ab0e3833db82c031de4a3f0e602590a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8197e89490dc663f80df425c475dfb63">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" xmlns:ns3="a95d4ba5-ac50-4ccb-8f38-68d250b34105" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57d494f76f6743b951aebebbdbb44cb6" ns2:_="" ns3:_="">
     <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
     <xsd:import namespace="a95d4ba5-ac50-4ccb-8f38-68d250b34105"/>
     <xsd:element name="properties">
@@ -27709,6 +28593,7 @@
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -27779,6 +28664,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a95d4ba5-ac50-4ccb-8f38-68d250b34105" elementFormDefault="qualified">
@@ -27896,44 +28786,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a95d4ba5-ac50-4ccb-8f38-68d250b34105" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3073c576-dbcc-4dca-a8e5-ccf7a0688d93">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2CD5BE-41EC-48B1-9BA1-AB516AF2FED7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
-    <ds:schemaRef ds:uri="a95d4ba5-ac50-4ccb-8f38-68d250b34105"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -27942,4 +28803,16 @@
     <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37357D95-8B77-409A-BAF8-E831BCA8A58F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/martysweight.xlsx
+++ b/inst/extdata/martysweight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrkmartongmailcom.sharepoint.com/sites/-/Shared Documents/General/Stats_R/R/Martysweight/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1352" documentId="13_ncr:1_{F102E521-F1A2-407A-A6A3-36972B24CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3B0D748-747F-45CE-BC52-47F8EC4B4D26}"/>
+  <xr:revisionPtr revIDLastSave="1454" documentId="13_ncr:1_{F102E521-F1A2-407A-A6A3-36972B24CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745A26F0-44F6-4BA8-934D-7E3F0D636B70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
@@ -470,11 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G2164"/>
+  <dimension ref="A1:G2181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2179" sqref="D2179"/>
+      <selection pane="bottomLeft" activeCell="F2182" sqref="F2182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10480,7 +10480,7 @@
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
-        <f>A1052</f>
+        <f t="shared" ref="A1053:A1061" si="0">A1052</f>
         <v>44366</v>
       </c>
       <c r="B1053">
@@ -10504,7 +10504,7 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
-        <f>A1053</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1054">
@@ -10528,7 +10528,7 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
-        <f>A1054</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1055">
@@ -10552,7 +10552,7 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
-        <f>A1055</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1056">
@@ -10576,7 +10576,7 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
-        <f>A1056</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1057">
@@ -10600,7 +10600,7 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
-        <f>A1057</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1058">
@@ -10624,7 +10624,7 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
-        <f>A1058</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1059">
@@ -10648,7 +10648,7 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
-        <f>A1059</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1060">
@@ -10672,7 +10672,7 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
-        <f>A1060</f>
+        <f t="shared" si="0"/>
         <v>44366</v>
       </c>
       <c r="B1061">
@@ -10720,7 +10720,7 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
-        <f>A1062</f>
+        <f t="shared" ref="A1063:A1076" si="1">A1062</f>
         <v>44367</v>
       </c>
       <c r="B1063">
@@ -10744,7 +10744,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
-        <f>A1063</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1064">
@@ -10768,7 +10768,7 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
-        <f>A1064</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1065">
@@ -10792,7 +10792,7 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
-        <f>A1065</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1066">
@@ -10816,7 +10816,7 @@
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1067" s="1">
-        <f>A1066</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1067">
@@ -10840,7 +10840,7 @@
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
-        <f>A1067</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1068">
@@ -10864,7 +10864,7 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1069" s="1">
-        <f>A1068</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1069">
@@ -10888,7 +10888,7 @@
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
-        <f>A1069</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1070">
@@ -10912,7 +10912,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1071" s="1">
-        <f>A1070</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1071">
@@ -10936,7 +10936,7 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1072" s="1">
-        <f>A1071</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1072">
@@ -10960,7 +10960,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1073" s="1">
-        <f>A1072</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1073">
@@ -10984,7 +10984,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" s="1">
-        <f>A1073</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1074">
@@ -11008,7 +11008,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
-        <f>A1074</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1075">
@@ -11032,7 +11032,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1076" s="1">
-        <f>A1075</f>
+        <f t="shared" si="1"/>
         <v>44367</v>
       </c>
       <c r="B1076">
@@ -11584,7 +11584,7 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1099" s="1">
-        <f>A1098</f>
+        <f t="shared" ref="A1099:A1111" si="2">A1098</f>
         <v>44374</v>
       </c>
       <c r="B1099">
@@ -11608,7 +11608,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1100" s="1">
-        <f>A1099</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1100">
@@ -11632,7 +11632,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1101" s="1">
-        <f>A1100</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1101">
@@ -11656,7 +11656,7 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1102" s="1">
-        <f>A1101</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1102">
@@ -11680,7 +11680,7 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1103" s="1">
-        <f>A1102</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1103">
@@ -11704,7 +11704,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
-        <f>A1103</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1104">
@@ -11728,7 +11728,7 @@
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1105" s="1">
-        <f>A1104</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1105">
@@ -11752,7 +11752,7 @@
     </row>
     <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1106" s="1">
-        <f>A1105</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1106">
@@ -11776,7 +11776,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1107" s="1">
-        <f>A1106</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1107">
@@ -11800,7 +11800,7 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1108" s="1">
-        <f>A1107</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1108">
@@ -11824,7 +11824,7 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" s="1">
-        <f>A1108</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1109">
@@ -11848,7 +11848,7 @@
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1110" s="1">
-        <f>A1109</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1110">
@@ -11872,7 +11872,7 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" s="1">
-        <f>A1110</f>
+        <f t="shared" si="2"/>
         <v>44374</v>
       </c>
       <c r="B1111">
@@ -11920,7 +11920,7 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1113" s="1">
-        <f>A1112</f>
+        <f t="shared" ref="A1113:A1128" si="3">A1112</f>
         <v>44375</v>
       </c>
       <c r="B1113">
@@ -11944,7 +11944,7 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1114" s="1">
-        <f>A1113</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1114">
@@ -11968,7 +11968,7 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1115" s="1">
-        <f>A1114</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1115">
@@ -11992,7 +11992,7 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1116" s="1">
-        <f>A1115</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1116">
@@ -12016,7 +12016,7 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1117" s="1">
-        <f>A1116</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1117">
@@ -12040,7 +12040,7 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1118" s="1">
-        <f>A1117</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1118">
@@ -12064,7 +12064,7 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1119" s="1">
-        <f>A1118</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1119">
@@ -12088,7 +12088,7 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1120" s="1">
-        <f>A1119</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1120">
@@ -12112,7 +12112,7 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1121" s="1">
-        <f>A1120</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1121">
@@ -12136,7 +12136,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1122" s="1">
-        <f>A1121</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1122">
@@ -12160,7 +12160,7 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1123" s="1">
-        <f>A1122</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1123">
@@ -12184,7 +12184,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1124" s="1">
-        <f>A1123</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1124">
@@ -12208,7 +12208,7 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1125" s="1">
-        <f>A1124</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1125">
@@ -12232,7 +12232,7 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1126" s="1">
-        <f>A1125</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1126">
@@ -12256,7 +12256,7 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1127" s="1">
-        <f>A1126</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1127">
@@ -12280,7 +12280,7 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
-        <f>A1127</f>
+        <f t="shared" si="3"/>
         <v>44375</v>
       </c>
       <c r="B1128">
@@ -12328,7 +12328,7 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1130" s="1">
-        <f>A1129</f>
+        <f t="shared" ref="A1130:A1149" si="4">A1129</f>
         <v>44376</v>
       </c>
       <c r="B1130">
@@ -12352,7 +12352,7 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1131" s="1">
-        <f>A1130</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1131">
@@ -12376,7 +12376,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1132" s="1">
-        <f>A1131</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1132">
@@ -12400,7 +12400,7 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1133" s="1">
-        <f>A1132</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1133">
@@ -12424,7 +12424,7 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1134" s="1">
-        <f>A1133</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1134">
@@ -12448,7 +12448,7 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
-        <f>A1134</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1135">
@@ -12472,7 +12472,7 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1136" s="1">
-        <f>A1135</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1136">
@@ -12496,7 +12496,7 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1137" s="1">
-        <f>A1136</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1137">
@@ -12520,7 +12520,7 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1138" s="1">
-        <f>A1137</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1138">
@@ -12544,7 +12544,7 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1139" s="1">
-        <f>A1138</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1139">
@@ -12568,7 +12568,7 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1140" s="1">
-        <f>A1139</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1140">
@@ -12592,7 +12592,7 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1141" s="1">
-        <f>A1140</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1141">
@@ -12616,7 +12616,7 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1142" s="1">
-        <f>A1141</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1142">
@@ -12640,7 +12640,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
-        <f>A1142</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1143">
@@ -12664,7 +12664,7 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1144" s="1">
-        <f>A1143</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1144">
@@ -12688,7 +12688,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" s="1">
-        <f>A1144</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1145">
@@ -12712,7 +12712,7 @@
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" s="1">
-        <f>A1145</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1146">
@@ -12736,7 +12736,7 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1147" s="1">
-        <f>A1146</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1147">
@@ -12760,7 +12760,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
-        <f>A1147</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1148">
@@ -12784,7 +12784,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" s="1">
-        <f>A1148</f>
+        <f t="shared" si="4"/>
         <v>44376</v>
       </c>
       <c r="B1149">
@@ -12832,7 +12832,7 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1151" s="1">
-        <f>A1150</f>
+        <f t="shared" ref="A1151:A1161" si="5">A1150</f>
         <v>44377</v>
       </c>
       <c r="B1151">
@@ -12856,7 +12856,7 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1152" s="1">
-        <f>A1151</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1152">
@@ -12880,7 +12880,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1153" s="1">
-        <f>A1152</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1153">
@@ -12904,7 +12904,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
-        <f>A1153</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1154">
@@ -12928,7 +12928,7 @@
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
-        <f>A1154</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1155">
@@ -12952,7 +12952,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
-        <f>A1155</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1156">
@@ -12976,7 +12976,7 @@
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
-        <f>A1156</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1157">
@@ -13000,7 +13000,7 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1158" s="1">
-        <f>A1157</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1158">
@@ -13024,7 +13024,7 @@
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1159" s="1">
-        <f>A1158</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1159">
@@ -13048,7 +13048,7 @@
     </row>
     <row r="1160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1160" s="1">
-        <f>A1159</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1160">
@@ -13072,7 +13072,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
-        <f>A1160</f>
+        <f t="shared" si="5"/>
         <v>44377</v>
       </c>
       <c r="B1161">
@@ -13120,7 +13120,7 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1163" s="1">
-        <f>A1162</f>
+        <f t="shared" ref="A1163:A1181" si="6">A1162</f>
         <v>44378</v>
       </c>
       <c r="B1163">
@@ -13144,7 +13144,7 @@
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1164" s="1">
-        <f>A1163</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1164">
@@ -13168,7 +13168,7 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
-        <f>A1164</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1165">
@@ -13192,7 +13192,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
-        <f>A1165</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1166">
@@ -13216,7 +13216,7 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
-        <f>A1166</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1167">
@@ -13240,7 +13240,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
-        <f>A1167</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1168">
@@ -13264,7 +13264,7 @@
     </row>
     <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
-        <f>A1168</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1169">
@@ -13288,7 +13288,7 @@
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
-        <f>A1169</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1170">
@@ -13312,7 +13312,7 @@
     </row>
     <row r="1171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
-        <f>A1170</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1171">
@@ -13336,7 +13336,7 @@
     </row>
     <row r="1172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
-        <f>A1171</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1172">
@@ -13360,7 +13360,7 @@
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1173" s="1">
-        <f>A1172</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1173">
@@ -13384,7 +13384,7 @@
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1174" s="1">
-        <f>A1173</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1174">
@@ -13408,7 +13408,7 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1175" s="1">
-        <f>A1174</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1175">
@@ -13432,7 +13432,7 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1176" s="1">
-        <f>A1175</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1176">
@@ -13456,7 +13456,7 @@
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1177" s="1">
-        <f>A1176</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1177">
@@ -13480,7 +13480,7 @@
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1178" s="1">
-        <f>A1177</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1178">
@@ -13504,7 +13504,7 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
-        <f>A1178</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1179">
@@ -13528,7 +13528,7 @@
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
-        <f>A1179</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1180">
@@ -13552,7 +13552,7 @@
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1181" s="1">
-        <f>A1180</f>
+        <f t="shared" si="6"/>
         <v>44378</v>
       </c>
       <c r="B1181">
@@ -13600,7 +13600,7 @@
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1183" s="1">
-        <f>A1182</f>
+        <f t="shared" ref="A1183:A1196" si="7">A1182</f>
         <v>44379</v>
       </c>
       <c r="B1183">
@@ -13624,7 +13624,7 @@
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1184" s="1">
-        <f>A1183</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1184">
@@ -13648,7 +13648,7 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
-        <f>A1184</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1185">
@@ -13672,7 +13672,7 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1186" s="1">
-        <f>A1185</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1186">
@@ -13696,7 +13696,7 @@
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1187" s="1">
-        <f>A1186</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1187">
@@ -13720,7 +13720,7 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1188" s="1">
-        <f>A1187</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1188">
@@ -13744,7 +13744,7 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1189" s="1">
-        <f>A1188</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1189">
@@ -13768,7 +13768,7 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1190" s="1">
-        <f>A1189</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1190">
@@ -13792,7 +13792,7 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1191" s="1">
-        <f>A1190</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1191">
@@ -13816,7 +13816,7 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1192" s="1">
-        <f>A1191</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1192">
@@ -13840,7 +13840,7 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1193" s="1">
-        <f>A1192</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1193">
@@ -13864,7 +13864,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1194" s="1">
-        <f>A1193</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1194">
@@ -13888,7 +13888,7 @@
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1195" s="1">
-        <f>A1194</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1195">
@@ -13912,7 +13912,7 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1196" s="1">
-        <f>A1195</f>
+        <f t="shared" si="7"/>
         <v>44379</v>
       </c>
       <c r="B1196">
@@ -13960,7 +13960,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1198" s="1">
-        <f>A1197</f>
+        <f t="shared" ref="A1198:A1203" si="8">A1197</f>
         <v>44380</v>
       </c>
       <c r="B1198">
@@ -13984,7 +13984,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1199" s="1">
-        <f>A1198</f>
+        <f t="shared" si="8"/>
         <v>44380</v>
       </c>
       <c r="B1199">
@@ -14008,7 +14008,7 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1200" s="1">
-        <f>A1199</f>
+        <f t="shared" si="8"/>
         <v>44380</v>
       </c>
       <c r="B1200">
@@ -14032,7 +14032,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1201" s="1">
-        <f>A1200</f>
+        <f t="shared" si="8"/>
         <v>44380</v>
       </c>
       <c r="B1201">
@@ -14056,7 +14056,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1202" s="1">
-        <f>A1201</f>
+        <f t="shared" si="8"/>
         <v>44380</v>
       </c>
       <c r="B1202">
@@ -14080,7 +14080,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
-        <f>A1202</f>
+        <f t="shared" si="8"/>
         <v>44380</v>
       </c>
       <c r="B1203">
@@ -14128,7 +14128,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1205" s="1">
-        <f>A1204</f>
+        <f t="shared" ref="A1205:A1222" si="9">A1204</f>
         <v>44381</v>
       </c>
       <c r="B1205">
@@ -14152,7 +14152,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
-        <f>A1205</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1206">
@@ -14176,7 +14176,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
-        <f>A1206</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1207">
@@ -14200,7 +14200,7 @@
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1208" s="1">
-        <f>A1207</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1208">
@@ -14224,7 +14224,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
-        <f>A1208</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1209">
@@ -14248,7 +14248,7 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
-        <f>A1209</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1210">
@@ -14272,7 +14272,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1211" s="1">
-        <f>A1210</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1211">
@@ -14296,7 +14296,7 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1212" s="1">
-        <f>A1211</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1212">
@@ -14320,7 +14320,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1213" s="1">
-        <f>A1212</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1213">
@@ -14344,7 +14344,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1214" s="1">
-        <f>A1213</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1214">
@@ -14368,7 +14368,7 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1215" s="1">
-        <f>A1214</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1215">
@@ -14392,7 +14392,7 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1216" s="1">
-        <f>A1215</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1216">
@@ -14416,7 +14416,7 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1217" s="1">
-        <f>A1216</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1217">
@@ -14440,7 +14440,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1218" s="1">
-        <f>A1217</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1218">
@@ -14464,7 +14464,7 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1219" s="1">
-        <f>A1218</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1219">
@@ -14488,7 +14488,7 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
-        <f>A1219</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1220">
@@ -14512,7 +14512,7 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
-        <f>A1220</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1221">
@@ -14536,7 +14536,7 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1222" s="1">
-        <f>A1221</f>
+        <f t="shared" si="9"/>
         <v>44381</v>
       </c>
       <c r="B1222">
@@ -14584,7 +14584,7 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1224" s="1">
-        <f>A1223</f>
+        <f t="shared" ref="A1224:A1251" si="10">A1223</f>
         <v>44382</v>
       </c>
       <c r="B1224">
@@ -14608,7 +14608,7 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1225" s="1">
-        <f>A1224</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1225">
@@ -14632,7 +14632,7 @@
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1226" s="1">
-        <f>A1225</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1226">
@@ -14656,7 +14656,7 @@
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1227" s="1">
-        <f>A1226</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1227">
@@ -14680,7 +14680,7 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1228" s="1">
-        <f>A1227</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1228">
@@ -14704,7 +14704,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1229" s="1">
-        <f>A1228</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1229">
@@ -14728,7 +14728,7 @@
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1230" s="1">
-        <f>A1229</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1230">
@@ -14752,7 +14752,7 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1231" s="1">
-        <f>A1230</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1231">
@@ -14776,7 +14776,7 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1232" s="1">
-        <f>A1231</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1232">
@@ -14800,7 +14800,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1233" s="1">
-        <f>A1232</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1233">
@@ -14824,7 +14824,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1234" s="1">
-        <f>A1233</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1234">
@@ -14848,7 +14848,7 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1235" s="1">
-        <f>A1234</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1235">
@@ -14872,7 +14872,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1236" s="1">
-        <f>A1235</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1236">
@@ -14896,7 +14896,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1237" s="1">
-        <f>A1236</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1237">
@@ -14920,7 +14920,7 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1238" s="1">
-        <f>A1237</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1238">
@@ -14944,7 +14944,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1239" s="1">
-        <f>A1238</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1239">
@@ -14968,7 +14968,7 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1240" s="1">
-        <f>A1239</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1240">
@@ -14992,7 +14992,7 @@
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1241" s="1">
-        <f>A1240</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1241">
@@ -15016,7 +15016,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1242" s="1">
-        <f>A1241</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1242">
@@ -15040,7 +15040,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1243" s="1">
-        <f>A1242</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1243">
@@ -15064,7 +15064,7 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1244" s="1">
-        <f>A1243</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1244">
@@ -15088,7 +15088,7 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1245" s="1">
-        <f>A1244</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1245">
@@ -15112,7 +15112,7 @@
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1246" s="1">
-        <f>A1245</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1246">
@@ -15136,7 +15136,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1247" s="1">
-        <f>A1246</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1247">
@@ -15160,7 +15160,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1248" s="1">
-        <f>A1247</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1248">
@@ -15184,7 +15184,7 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1249" s="1">
-        <f>A1248</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1249">
@@ -15208,7 +15208,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1250" s="1">
-        <f>A1249</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1250">
@@ -15232,7 +15232,7 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1251" s="1">
-        <f>A1250</f>
+        <f t="shared" si="10"/>
         <v>44382</v>
       </c>
       <c r="B1251">
@@ -15280,7 +15280,7 @@
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1253" s="1">
-        <f>A1252</f>
+        <f t="shared" ref="A1253:A1260" si="11">A1252</f>
         <v>44383</v>
       </c>
       <c r="B1253">
@@ -15304,7 +15304,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1254" s="1">
-        <f>A1253</f>
+        <f t="shared" si="11"/>
         <v>44383</v>
       </c>
       <c r="B1254">
@@ -15328,7 +15328,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1255" s="1">
-        <f>A1254</f>
+        <f t="shared" si="11"/>
         <v>44383</v>
       </c>
       <c r="B1255">
@@ -15352,7 +15352,7 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1256" s="1">
-        <f>A1255</f>
+        <f t="shared" si="11"/>
         <v>44383</v>
       </c>
       <c r="B1256">
@@ -15376,7 +15376,7 @@
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1257" s="1">
-        <f>A1256</f>
+        <f t="shared" si="11"/>
         <v>44383</v>
       </c>
       <c r="B1257">
@@ -15400,7 +15400,7 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1258" s="1">
-        <f>A1257</f>
+        <f t="shared" si="11"/>
         <v>44383</v>
       </c>
       <c r="B1258">
@@ -15424,7 +15424,7 @@
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1259" s="1">
-        <f>A1258</f>
+        <f t="shared" si="11"/>
         <v>44383</v>
       </c>
       <c r="B1259">
@@ -15448,7 +15448,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1260" s="1">
-        <f>A1259</f>
+        <f t="shared" si="11"/>
         <v>44383</v>
       </c>
       <c r="B1260">
@@ -15496,7 +15496,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1262" s="1">
-        <f>A1261</f>
+        <f t="shared" ref="A1262:A1280" si="12">A1261</f>
         <v>44384</v>
       </c>
       <c r="B1262">
@@ -15520,7 +15520,7 @@
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1263" s="1">
-        <f>A1262</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1263">
@@ -15544,7 +15544,7 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1264" s="1">
-        <f>A1263</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1264">
@@ -15568,7 +15568,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1265" s="1">
-        <f>A1264</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1265">
@@ -15592,7 +15592,7 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
-        <f>A1265</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1266">
@@ -15616,7 +15616,7 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
-        <f>A1266</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1267">
@@ -15640,7 +15640,7 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1268" s="1">
-        <f>A1267</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1268">
@@ -15664,7 +15664,7 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1269" s="1">
-        <f>A1268</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1269">
@@ -15688,7 +15688,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1270" s="1">
-        <f>A1269</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1270">
@@ -15712,7 +15712,7 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1271" s="1">
-        <f>A1270</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1271">
@@ -15736,7 +15736,7 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1272" s="1">
-        <f>A1271</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1272">
@@ -15760,7 +15760,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1273" s="1">
-        <f>A1272</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1273">
@@ -15784,7 +15784,7 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1274" s="1">
-        <f>A1273</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1274">
@@ -15808,7 +15808,7 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1275" s="1">
-        <f>A1274</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1275">
@@ -15832,7 +15832,7 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1276" s="1">
-        <f>A1275</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1276">
@@ -15856,7 +15856,7 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1277" s="1">
-        <f>A1276</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1277">
@@ -15880,7 +15880,7 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1278" s="1">
-        <f>A1277</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1278">
@@ -15904,7 +15904,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1279" s="1">
-        <f>A1278</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1279">
@@ -15928,7 +15928,7 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1280" s="1">
-        <f>A1279</f>
+        <f t="shared" si="12"/>
         <v>44384</v>
       </c>
       <c r="B1280">
@@ -15977,7 +15977,7 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1282" s="1">
-        <f>A1281</f>
+        <f t="shared" ref="A1282:A1300" si="13">A1281</f>
         <v>44385</v>
       </c>
       <c r="B1282">
@@ -16001,7 +16001,7 @@
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1283" s="1">
-        <f>A1282</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1283">
@@ -16025,7 +16025,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1284" s="1">
-        <f>A1283</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1284">
@@ -16049,7 +16049,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1285" s="1">
-        <f>A1284</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1285">
@@ -16073,7 +16073,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1286" s="1">
-        <f>A1285</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1286">
@@ -16097,7 +16097,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1287" s="1">
-        <f>A1286</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1287">
@@ -16121,7 +16121,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1288" s="1">
-        <f>A1287</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1288">
@@ -16145,7 +16145,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1289" s="1">
-        <f>A1288</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1289">
@@ -16169,7 +16169,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1290" s="1">
-        <f>A1289</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1290">
@@ -16193,7 +16193,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1291" s="1">
-        <f>A1290</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1291">
@@ -16217,7 +16217,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1292" s="1">
-        <f>A1291</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1292">
@@ -16241,7 +16241,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1293" s="1">
-        <f>A1292</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1293">
@@ -16265,7 +16265,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1294" s="1">
-        <f>A1293</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1294">
@@ -16289,7 +16289,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1295" s="1">
-        <f>A1294</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1295">
@@ -16313,7 +16313,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1296" s="1">
-        <f>A1295</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1296">
@@ -16337,7 +16337,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1297" s="1">
-        <f>A1296</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1297">
@@ -16361,7 +16361,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1298" s="1">
-        <f>A1297</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1298">
@@ -16385,7 +16385,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1299" s="1">
-        <f>A1298</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1299">
@@ -16409,7 +16409,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1300" s="1">
-        <f>A1299</f>
+        <f t="shared" si="13"/>
         <v>44385</v>
       </c>
       <c r="B1300">
@@ -16457,7 +16457,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1302" s="1">
-        <f>A1301</f>
+        <f t="shared" ref="A1302:A1315" si="14">A1301</f>
         <v>44386</v>
       </c>
       <c r="B1302">
@@ -16481,7 +16481,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1303" s="1">
-        <f>A1302</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1303">
@@ -16505,7 +16505,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1304" s="1">
-        <f>A1303</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1304">
@@ -16529,7 +16529,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1305" s="1">
-        <f>A1304</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1305">
@@ -16553,7 +16553,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1306" s="1">
-        <f>A1305</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1306">
@@ -16577,7 +16577,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1307" s="1">
-        <f>A1306</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1307">
@@ -16601,7 +16601,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1308" s="1">
-        <f>A1307</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1308">
@@ -16625,7 +16625,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1309" s="1">
-        <f>A1308</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1309">
@@ -16649,7 +16649,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1310" s="1">
-        <f>A1309</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1310">
@@ -16673,7 +16673,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1311" s="1">
-        <f>A1310</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1311">
@@ -16697,7 +16697,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1312" s="1">
-        <f>A1311</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1312">
@@ -16721,7 +16721,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1313" s="1">
-        <f>A1312</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1313">
@@ -16745,7 +16745,7 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1314" s="1">
-        <f>A1313</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1314">
@@ -16769,7 +16769,7 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1315" s="1">
-        <f>A1314</f>
+        <f t="shared" si="14"/>
         <v>44386</v>
       </c>
       <c r="B1315">
@@ -16841,7 +16841,7 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1318" s="1">
-        <f>A1317</f>
+        <f t="shared" ref="A1318:A1324" si="15">A1317</f>
         <v>44388</v>
       </c>
       <c r="B1318">
@@ -16865,7 +16865,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1319" s="1">
-        <f>A1318</f>
+        <f t="shared" si="15"/>
         <v>44388</v>
       </c>
       <c r="B1319">
@@ -16889,7 +16889,7 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1320" s="1">
-        <f>A1319</f>
+        <f t="shared" si="15"/>
         <v>44388</v>
       </c>
       <c r="B1320">
@@ -16913,7 +16913,7 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1321" s="1">
-        <f>A1320</f>
+        <f t="shared" si="15"/>
         <v>44388</v>
       </c>
       <c r="B1321">
@@ -16937,7 +16937,7 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1322" s="1">
-        <f>A1321</f>
+        <f t="shared" si="15"/>
         <v>44388</v>
       </c>
       <c r="B1322">
@@ -16961,7 +16961,7 @@
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1323" s="1">
-        <f>A1322</f>
+        <f t="shared" si="15"/>
         <v>44388</v>
       </c>
       <c r="B1323">
@@ -16985,7 +16985,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1324" s="1">
-        <f>A1323</f>
+        <f t="shared" si="15"/>
         <v>44388</v>
       </c>
       <c r="B1324">
@@ -17033,7 +17033,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1326" s="1">
-        <f>A1325</f>
+        <f t="shared" ref="A1326:A1335" si="16">A1325</f>
         <v>44389</v>
       </c>
       <c r="B1326">
@@ -17057,7 +17057,7 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1327" s="1">
-        <f>A1326</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1327">
@@ -17081,7 +17081,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1328" s="1">
-        <f>A1327</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1328">
@@ -17105,7 +17105,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1329" s="1">
-        <f>A1328</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1329">
@@ -17129,7 +17129,7 @@
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1330" s="1">
-        <f>A1329</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1330">
@@ -17153,7 +17153,7 @@
     </row>
     <row r="1331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1331" s="1">
-        <f>A1330</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1331">
@@ -17177,7 +17177,7 @@
     </row>
     <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1332" s="1">
-        <f>A1331</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1332">
@@ -17201,7 +17201,7 @@
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1333" s="1">
-        <f>A1332</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1333">
@@ -17225,7 +17225,7 @@
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1334" s="1">
-        <f>A1333</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1334">
@@ -17249,7 +17249,7 @@
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1335" s="1">
-        <f>A1334</f>
+        <f t="shared" si="16"/>
         <v>44389</v>
       </c>
       <c r="B1335">
@@ -17297,7 +17297,7 @@
     </row>
     <row r="1337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1337" s="1">
-        <f>A1336</f>
+        <f t="shared" ref="A1337:A1351" si="17">A1336</f>
         <v>44390</v>
       </c>
       <c r="B1337">
@@ -17321,7 +17321,7 @@
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1338" s="1">
-        <f>A1337</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1338">
@@ -17345,7 +17345,7 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1339" s="1">
-        <f>A1338</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1339">
@@ -17369,7 +17369,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1340" s="1">
-        <f>A1339</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1340">
@@ -17393,7 +17393,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1341" s="1">
-        <f>A1340</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1341">
@@ -17417,7 +17417,7 @@
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1342" s="1">
-        <f>A1341</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1342">
@@ -17441,7 +17441,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1343" s="1">
-        <f>A1342</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1343">
@@ -17465,7 +17465,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1344" s="1">
-        <f>A1343</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1344">
@@ -17489,7 +17489,7 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1345" s="1">
-        <f>A1344</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1345">
@@ -17513,7 +17513,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1346" s="1">
-        <f>A1345</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1346">
@@ -17537,7 +17537,7 @@
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1347" s="1">
-        <f>A1346</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1347">
@@ -17561,7 +17561,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1348" s="1">
-        <f>A1347</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1348">
@@ -17585,7 +17585,7 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1349" s="1">
-        <f>A1348</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1349">
@@ -17609,7 +17609,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1350" s="1">
-        <f>A1349</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1350">
@@ -17633,7 +17633,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1351" s="1">
-        <f>A1350</f>
+        <f t="shared" si="17"/>
         <v>44390</v>
       </c>
       <c r="B1351">
@@ -17681,7 +17681,7 @@
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1353" s="1">
-        <f>A1352</f>
+        <f t="shared" ref="A1353:A1375" si="18">A1352</f>
         <v>44391</v>
       </c>
       <c r="B1353">
@@ -17705,7 +17705,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1354" s="1">
-        <f>A1353</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1354">
@@ -17729,7 +17729,7 @@
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1355" s="1">
-        <f>A1354</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1355">
@@ -17753,7 +17753,7 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1356" s="1">
-        <f>A1355</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1356">
@@ -17777,7 +17777,7 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1357" s="1">
-        <f>A1356</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1357">
@@ -17801,7 +17801,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1358" s="1">
-        <f>A1357</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1358">
@@ -17825,7 +17825,7 @@
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1359" s="1">
-        <f>A1358</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1359">
@@ -17849,7 +17849,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1360" s="1">
-        <f>A1359</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1360">
@@ -17873,7 +17873,7 @@
     </row>
     <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1361" s="1">
-        <f>A1360</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1361">
@@ -17897,7 +17897,7 @@
     </row>
     <row r="1362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1362" s="1">
-        <f>A1361</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1362">
@@ -17921,7 +17921,7 @@
     </row>
     <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1363" s="1">
-        <f>A1362</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1363">
@@ -17945,7 +17945,7 @@
     </row>
     <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1364" s="1">
-        <f>A1363</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1364">
@@ -17969,7 +17969,7 @@
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1365" s="1">
-        <f>A1364</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1365">
@@ -17993,7 +17993,7 @@
     </row>
     <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1366" s="1">
-        <f>A1365</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1366">
@@ -18017,7 +18017,7 @@
     </row>
     <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1367" s="1">
-        <f>A1366</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1367">
@@ -18041,7 +18041,7 @@
     </row>
     <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1368" s="1">
-        <f>A1367</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1368">
@@ -18065,7 +18065,7 @@
     </row>
     <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1369" s="1">
-        <f>A1368</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1369">
@@ -18089,7 +18089,7 @@
     </row>
     <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1370" s="1">
-        <f>A1369</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1370">
@@ -18113,7 +18113,7 @@
     </row>
     <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1371" s="1">
-        <f>A1370</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1371">
@@ -18137,7 +18137,7 @@
     </row>
     <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1372" s="1">
-        <f>A1371</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1372">
@@ -18161,7 +18161,7 @@
     </row>
     <row r="1373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1373" s="1">
-        <f>A1372</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1373">
@@ -18185,7 +18185,7 @@
     </row>
     <row r="1374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1374" s="1">
-        <f>A1373</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1374">
@@ -18209,7 +18209,7 @@
     </row>
     <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1375" s="1">
-        <f>A1374</f>
+        <f t="shared" si="18"/>
         <v>44391</v>
       </c>
       <c r="B1375">
@@ -18257,7 +18257,7 @@
     </row>
     <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1377" s="1">
-        <f>A1376</f>
+        <f t="shared" ref="A1377:A1398" si="19">A1376</f>
         <v>44392</v>
       </c>
       <c r="B1377">
@@ -18281,7 +18281,7 @@
     </row>
     <row r="1378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1378" s="1">
-        <f>A1377</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1378">
@@ -18305,7 +18305,7 @@
     </row>
     <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1379" s="1">
-        <f>A1378</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1379">
@@ -18329,7 +18329,7 @@
     </row>
     <row r="1380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1380" s="1">
-        <f>A1379</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1380">
@@ -18353,7 +18353,7 @@
     </row>
     <row r="1381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1381" s="1">
-        <f>A1380</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1381">
@@ -18377,7 +18377,7 @@
     </row>
     <row r="1382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1382" s="1">
-        <f>A1381</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1382">
@@ -18401,7 +18401,7 @@
     </row>
     <row r="1383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1383" s="1">
-        <f>A1382</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1383">
@@ -18425,7 +18425,7 @@
     </row>
     <row r="1384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1384" s="1">
-        <f>A1383</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1384">
@@ -18449,7 +18449,7 @@
     </row>
     <row r="1385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1385" s="1">
-        <f>A1384</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1385">
@@ -18473,7 +18473,7 @@
     </row>
     <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1386" s="1">
-        <f>A1385</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1386">
@@ -18497,7 +18497,7 @@
     </row>
     <row r="1387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1387" s="1">
-        <f>A1386</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1387">
@@ -18521,7 +18521,7 @@
     </row>
     <row r="1388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1388" s="1">
-        <f>A1387</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1388">
@@ -18545,7 +18545,7 @@
     </row>
     <row r="1389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1389" s="1">
-        <f>A1388</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1389">
@@ -18569,7 +18569,7 @@
     </row>
     <row r="1390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1390" s="1">
-        <f>A1389</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1390">
@@ -18593,7 +18593,7 @@
     </row>
     <row r="1391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1391" s="1">
-        <f>A1390</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1391">
@@ -18617,7 +18617,7 @@
     </row>
     <row r="1392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1392" s="1">
-        <f>A1391</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1392">
@@ -18641,7 +18641,7 @@
     </row>
     <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1393" s="1">
-        <f>A1392</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1393">
@@ -18665,7 +18665,7 @@
     </row>
     <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1394" s="1">
-        <f>A1393</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1394">
@@ -18689,7 +18689,7 @@
     </row>
     <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1395" s="1">
-        <f>A1394</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1395">
@@ -18713,7 +18713,7 @@
     </row>
     <row r="1396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1396" s="1">
-        <f>A1395</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1396">
@@ -18737,7 +18737,7 @@
     </row>
     <row r="1397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1397" s="1">
-        <f>A1396</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1397">
@@ -18761,7 +18761,7 @@
     </row>
     <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1398" s="1">
-        <f>A1397</f>
+        <f t="shared" si="19"/>
         <v>44392</v>
       </c>
       <c r="B1398">
@@ -18809,7 +18809,7 @@
     </row>
     <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1400" s="1">
-        <f>A1399</f>
+        <f t="shared" ref="A1400:A1418" si="20">A1399</f>
         <v>44393</v>
       </c>
       <c r="B1400">
@@ -18833,7 +18833,7 @@
     </row>
     <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1401" s="1">
-        <f>A1400</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1401">
@@ -18857,7 +18857,7 @@
     </row>
     <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1402" s="1">
-        <f>A1401</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1402">
@@ -18881,7 +18881,7 @@
     </row>
     <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1403" s="1">
-        <f>A1402</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1403">
@@ -18905,7 +18905,7 @@
     </row>
     <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1404" s="1">
-        <f>A1403</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1404">
@@ -18929,7 +18929,7 @@
     </row>
     <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1405" s="1">
-        <f>A1404</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1405">
@@ -18953,7 +18953,7 @@
     </row>
     <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1406" s="1">
-        <f>A1405</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1406">
@@ -18977,7 +18977,7 @@
     </row>
     <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1407" s="1">
-        <f>A1406</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1407">
@@ -19001,7 +19001,7 @@
     </row>
     <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1408" s="1">
-        <f>A1407</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1408">
@@ -19025,7 +19025,7 @@
     </row>
     <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1409" s="1">
-        <f>A1408</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1409">
@@ -19049,7 +19049,7 @@
     </row>
     <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1410" s="1">
-        <f>A1409</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1410">
@@ -19073,7 +19073,7 @@
     </row>
     <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1411" s="1">
-        <f>A1410</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1411">
@@ -19097,7 +19097,7 @@
     </row>
     <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1412" s="1">
-        <f>A1411</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1412">
@@ -19121,7 +19121,7 @@
     </row>
     <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1413" s="1">
-        <f>A1412</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1413">
@@ -19145,7 +19145,7 @@
     </row>
     <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1414" s="1">
-        <f>A1413</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1414">
@@ -19169,7 +19169,7 @@
     </row>
     <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1415" s="1">
-        <f>A1414</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1415">
@@ -19193,7 +19193,7 @@
     </row>
     <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1416" s="1">
-        <f>A1415</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1416">
@@ -19217,7 +19217,7 @@
     </row>
     <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1417" s="1">
-        <f>A1416</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1417">
@@ -19241,7 +19241,7 @@
     </row>
     <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1418" s="1">
-        <f>A1417</f>
+        <f t="shared" si="20"/>
         <v>44393</v>
       </c>
       <c r="B1418">
@@ -19289,7 +19289,7 @@
     </row>
     <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1420" s="1">
-        <f>A1419</f>
+        <f t="shared" ref="A1420:A1430" si="21">A1419</f>
         <v>44394</v>
       </c>
       <c r="B1420">
@@ -19313,7 +19313,7 @@
     </row>
     <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1421" s="1">
-        <f>A1420</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1421">
@@ -19337,7 +19337,7 @@
     </row>
     <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1422" s="1">
-        <f>A1421</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1422">
@@ -19361,7 +19361,7 @@
     </row>
     <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1423" s="1">
-        <f>A1422</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1423">
@@ -19385,7 +19385,7 @@
     </row>
     <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1424" s="1">
-        <f>A1423</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1424">
@@ -19409,7 +19409,7 @@
     </row>
     <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1425" s="1">
-        <f>A1424</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1425">
@@ -19433,7 +19433,7 @@
     </row>
     <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1426" s="1">
-        <f>A1425</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1426">
@@ -19457,7 +19457,7 @@
     </row>
     <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1427" s="1">
-        <f>A1426</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1427">
@@ -19481,7 +19481,7 @@
     </row>
     <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1428" s="1">
-        <f>A1427</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1428">
@@ -19505,7 +19505,7 @@
     </row>
     <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1429" s="1">
-        <f>A1428</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1429">
@@ -19529,7 +19529,7 @@
     </row>
     <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1430" s="1">
-        <f>A1429</f>
+        <f t="shared" si="21"/>
         <v>44394</v>
       </c>
       <c r="B1430">
@@ -19721,7 +19721,7 @@
     </row>
     <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1438" s="1">
-        <f>A1437</f>
+        <f t="shared" ref="A1438:A1457" si="22">A1437</f>
         <v>44396</v>
       </c>
       <c r="B1438">
@@ -19745,7 +19745,7 @@
     </row>
     <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1439" s="1">
-        <f>A1438</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1439">
@@ -19769,7 +19769,7 @@
     </row>
     <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1440" s="1">
-        <f>A1439</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1440">
@@ -19793,7 +19793,7 @@
     </row>
     <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1441" s="1">
-        <f>A1440</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1441">
@@ -19817,7 +19817,7 @@
     </row>
     <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1442" s="1">
-        <f>A1441</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1442">
@@ -19841,7 +19841,7 @@
     </row>
     <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1443" s="1">
-        <f>A1442</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1443">
@@ -19865,7 +19865,7 @@
     </row>
     <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
-        <f>A1443</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1444">
@@ -19889,7 +19889,7 @@
     </row>
     <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1445" s="1">
-        <f>A1444</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1445">
@@ -19913,7 +19913,7 @@
     </row>
     <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1446" s="1">
-        <f>A1445</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1446">
@@ -19937,7 +19937,7 @@
     </row>
     <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1447" s="1">
-        <f>A1446</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1447">
@@ -19961,7 +19961,7 @@
     </row>
     <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1448" s="1">
-        <f>A1447</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1448">
@@ -19985,7 +19985,7 @@
     </row>
     <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1449" s="1">
-        <f>A1448</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1449">
@@ -20009,7 +20009,7 @@
     </row>
     <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1450" s="1">
-        <f>A1449</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1450">
@@ -20033,7 +20033,7 @@
     </row>
     <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1451" s="1">
-        <f>A1450</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1451">
@@ -20057,7 +20057,7 @@
     </row>
     <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1452" s="1">
-        <f>A1451</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1452">
@@ -20081,7 +20081,7 @@
     </row>
     <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1453" s="1">
-        <f>A1452</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1453">
@@ -20105,7 +20105,7 @@
     </row>
     <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1454" s="1">
-        <f>A1453</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1454">
@@ -20129,7 +20129,7 @@
     </row>
     <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1455" s="1">
-        <f>A1454</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1455">
@@ -20153,7 +20153,7 @@
     </row>
     <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1456" s="1">
-        <f>A1455</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1456">
@@ -20177,7 +20177,7 @@
     </row>
     <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1457" s="1">
-        <f>A1456</f>
+        <f t="shared" si="22"/>
         <v>44396</v>
       </c>
       <c r="B1457">
@@ -20369,7 +20369,7 @@
     </row>
     <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1465" s="1">
-        <f>A1464</f>
+        <f t="shared" ref="A1465:A1470" si="23">A1464</f>
         <v>44398</v>
       </c>
       <c r="B1465">
@@ -20393,7 +20393,7 @@
     </row>
     <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1466" s="1">
-        <f>A1465</f>
+        <f t="shared" si="23"/>
         <v>44398</v>
       </c>
       <c r="B1466">
@@ -20417,7 +20417,7 @@
     </row>
     <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1467" s="1">
-        <f>A1466</f>
+        <f t="shared" si="23"/>
         <v>44398</v>
       </c>
       <c r="B1467">
@@ -20441,7 +20441,7 @@
     </row>
     <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1468" s="1">
-        <f>A1467</f>
+        <f t="shared" si="23"/>
         <v>44398</v>
       </c>
       <c r="B1468">
@@ -20465,7 +20465,7 @@
     </row>
     <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1469" s="1">
-        <f>A1468</f>
+        <f t="shared" si="23"/>
         <v>44398</v>
       </c>
       <c r="B1469">
@@ -20489,7 +20489,7 @@
     </row>
     <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1470" s="1">
-        <f>A1469</f>
+        <f t="shared" si="23"/>
         <v>44398</v>
       </c>
       <c r="B1470">
@@ -20825,7 +20825,7 @@
     </row>
     <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
-        <f>A1483</f>
+        <f t="shared" ref="A1484:A1494" si="24">A1483</f>
         <v>44403</v>
       </c>
       <c r="B1484">
@@ -20849,7 +20849,7 @@
     </row>
     <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
-        <f>A1484</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1485">
@@ -20873,7 +20873,7 @@
     </row>
     <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
-        <f>A1485</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1486">
@@ -20897,7 +20897,7 @@
     </row>
     <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
-        <f>A1486</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1487">
@@ -20921,7 +20921,7 @@
     </row>
     <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
-        <f>A1487</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1488">
@@ -20945,7 +20945,7 @@
     </row>
     <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1489" s="1">
-        <f>A1488</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1489">
@@ -20969,7 +20969,7 @@
     </row>
     <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1490" s="1">
-        <f>A1489</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1490">
@@ -20993,7 +20993,7 @@
     </row>
     <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1491" s="1">
-        <f>A1490</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1491">
@@ -21017,7 +21017,7 @@
     </row>
     <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
-        <f>A1491</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1492">
@@ -21041,7 +21041,7 @@
     </row>
     <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
-        <f>A1492</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1493">
@@ -21065,7 +21065,7 @@
     </row>
     <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
-        <f>A1493</f>
+        <f t="shared" si="24"/>
         <v>44403</v>
       </c>
       <c r="B1494">
@@ -21113,7 +21113,7 @@
     </row>
     <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1496" s="1">
-        <f>A1495</f>
+        <f t="shared" ref="A1496:A1505" si="25">A1495</f>
         <v>44404</v>
       </c>
       <c r="B1496">
@@ -21137,7 +21137,7 @@
     </row>
     <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1497" s="1">
-        <f>A1496</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1497">
@@ -21161,7 +21161,7 @@
     </row>
     <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1498" s="1">
-        <f>A1497</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1498">
@@ -21185,7 +21185,7 @@
     </row>
     <row r="1499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1499" s="1">
-        <f>A1498</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1499">
@@ -21209,7 +21209,7 @@
     </row>
     <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1500" s="1">
-        <f>A1499</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1500">
@@ -21233,7 +21233,7 @@
     </row>
     <row r="1501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1501" s="1">
-        <f>A1500</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1501">
@@ -21257,7 +21257,7 @@
     </row>
     <row r="1502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1502" s="1">
-        <f>A1501</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1502">
@@ -21281,7 +21281,7 @@
     </row>
     <row r="1503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1503" s="1">
-        <f>A1502</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1503">
@@ -21305,7 +21305,7 @@
     </row>
     <row r="1504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1504" s="1">
-        <f>A1503</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1504">
@@ -21329,7 +21329,7 @@
     </row>
     <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1505" s="1">
-        <f>A1504</f>
+        <f t="shared" si="25"/>
         <v>44404</v>
       </c>
       <c r="B1505">
@@ -21377,7 +21377,7 @@
     </row>
     <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1507" s="1">
-        <f>A1506</f>
+        <f t="shared" ref="A1507:A1512" si="26">A1506</f>
         <v>44405</v>
       </c>
       <c r="B1507">
@@ -21401,7 +21401,7 @@
     </row>
     <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1508" s="1">
-        <f>A1507</f>
+        <f t="shared" si="26"/>
         <v>44405</v>
       </c>
       <c r="B1508">
@@ -21425,7 +21425,7 @@
     </row>
     <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1509" s="1">
-        <f>A1508</f>
+        <f t="shared" si="26"/>
         <v>44405</v>
       </c>
       <c r="B1509">
@@ -21449,7 +21449,7 @@
     </row>
     <row r="1510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
-        <f>A1509</f>
+        <f t="shared" si="26"/>
         <v>44405</v>
       </c>
       <c r="B1510">
@@ -21473,7 +21473,7 @@
     </row>
     <row r="1511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1511" s="1">
-        <f>A1510</f>
+        <f t="shared" si="26"/>
         <v>44405</v>
       </c>
       <c r="B1511">
@@ -21497,7 +21497,7 @@
     </row>
     <row r="1512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1512" s="1">
-        <f>A1511</f>
+        <f t="shared" si="26"/>
         <v>44405</v>
       </c>
       <c r="B1512">
@@ -22193,7 +22193,7 @@
     </row>
     <row r="1541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1541" s="1">
-        <f>A1540</f>
+        <f t="shared" ref="A1541:A1554" si="27">A1540</f>
         <v>44422</v>
       </c>
       <c r="B1541">
@@ -22217,7 +22217,7 @@
     </row>
     <row r="1542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1542" s="1">
-        <f>A1541</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1542">
@@ -22241,7 +22241,7 @@
     </row>
     <row r="1543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1543" s="1">
-        <f>A1542</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1543">
@@ -22265,7 +22265,7 @@
     </row>
     <row r="1544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1544" s="1">
-        <f>A1543</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1544">
@@ -22289,7 +22289,7 @@
     </row>
     <row r="1545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
-        <f>A1544</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1545">
@@ -22313,7 +22313,7 @@
     </row>
     <row r="1546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1546" s="1">
-        <f>A1545</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1546">
@@ -22337,7 +22337,7 @@
     </row>
     <row r="1547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1547" s="1">
-        <f>A1546</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1547">
@@ -22361,7 +22361,7 @@
     </row>
     <row r="1548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1548" s="1">
-        <f>A1547</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1548">
@@ -22385,7 +22385,7 @@
     </row>
     <row r="1549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1549" s="1">
-        <f>A1548</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1549">
@@ -22409,7 +22409,7 @@
     </row>
     <row r="1550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1550" s="1">
-        <f>A1549</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1550">
@@ -22433,7 +22433,7 @@
     </row>
     <row r="1551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1551" s="1">
-        <f>A1550</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1551">
@@ -22457,7 +22457,7 @@
     </row>
     <row r="1552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1552" s="1">
-        <f>A1551</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1552">
@@ -22481,7 +22481,7 @@
     </row>
     <row r="1553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
-        <f>A1552</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1553">
@@ -22505,7 +22505,7 @@
     </row>
     <row r="1554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1554" s="1">
-        <f>A1553</f>
+        <f t="shared" si="27"/>
         <v>44422</v>
       </c>
       <c r="B1554">
@@ -22553,7 +22553,7 @@
     </row>
     <row r="1556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1556" s="1">
-        <f>A1555</f>
+        <f t="shared" ref="A1556:A1565" si="28">A1555</f>
         <v>44423</v>
       </c>
       <c r="B1556">
@@ -22577,7 +22577,7 @@
     </row>
     <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1557" s="1">
-        <f>A1556</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1557">
@@ -22601,7 +22601,7 @@
     </row>
     <row r="1558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1558" s="1">
-        <f>A1557</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1558">
@@ -22625,7 +22625,7 @@
     </row>
     <row r="1559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1559" s="1">
-        <f>A1558</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1559">
@@ -22649,7 +22649,7 @@
     </row>
     <row r="1560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1560" s="1">
-        <f>A1559</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1560">
@@ -22673,7 +22673,7 @@
     </row>
     <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1561" s="1">
-        <f>A1560</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1561">
@@ -22697,7 +22697,7 @@
     </row>
     <row r="1562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1562" s="1">
-        <f>A1561</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1562">
@@ -22721,7 +22721,7 @@
     </row>
     <row r="1563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1563" s="1">
-        <f>A1562</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1563">
@@ -22745,7 +22745,7 @@
     </row>
     <row r="1564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1564" s="1">
-        <f>A1563</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1564">
@@ -22769,7 +22769,7 @@
     </row>
     <row r="1565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1565" s="1">
-        <f>A1564</f>
+        <f t="shared" si="28"/>
         <v>44423</v>
       </c>
       <c r="B1565">
@@ -22817,7 +22817,7 @@
     </row>
     <row r="1567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1567" s="1">
-        <f>A1566</f>
+        <f t="shared" ref="A1567:A1577" si="29">A1566</f>
         <v>44424</v>
       </c>
       <c r="B1567">
@@ -22841,7 +22841,7 @@
     </row>
     <row r="1568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1568" s="1">
-        <f>A1567</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1568">
@@ -22865,7 +22865,7 @@
     </row>
     <row r="1569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1569" s="1">
-        <f>A1568</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1569">
@@ -22889,7 +22889,7 @@
     </row>
     <row r="1570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1570" s="1">
-        <f>A1569</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1570">
@@ -22913,7 +22913,7 @@
     </row>
     <row r="1571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1571" s="1">
-        <f>A1570</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1571">
@@ -22937,7 +22937,7 @@
     </row>
     <row r="1572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1572" s="1">
-        <f>A1571</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1572">
@@ -22961,7 +22961,7 @@
     </row>
     <row r="1573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1573" s="1">
-        <f>A1572</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1573">
@@ -22985,7 +22985,7 @@
     </row>
     <row r="1574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1574" s="1">
-        <f>A1573</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1574">
@@ -23009,7 +23009,7 @@
     </row>
     <row r="1575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1575" s="1">
-        <f>A1574</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1575">
@@ -23033,7 +23033,7 @@
     </row>
     <row r="1576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1576" s="1">
-        <f>A1575</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1576">
@@ -23057,7 +23057,7 @@
     </row>
     <row r="1577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
-        <f>A1576</f>
+        <f t="shared" si="29"/>
         <v>44424</v>
       </c>
       <c r="B1577">
@@ -23177,7 +23177,7 @@
     </row>
     <row r="1582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1582" s="1">
-        <f>A1581</f>
+        <f t="shared" ref="A1582:A1588" si="30">A1581</f>
         <v>44428</v>
       </c>
       <c r="B1582">
@@ -23201,7 +23201,7 @@
     </row>
     <row r="1583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1583" s="1">
-        <f>A1582</f>
+        <f t="shared" si="30"/>
         <v>44428</v>
       </c>
       <c r="B1583">
@@ -23225,7 +23225,7 @@
     </row>
     <row r="1584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1584" s="1">
-        <f>A1583</f>
+        <f t="shared" si="30"/>
         <v>44428</v>
       </c>
       <c r="B1584">
@@ -23249,7 +23249,7 @@
     </row>
     <row r="1585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1585" s="1">
-        <f>A1584</f>
+        <f t="shared" si="30"/>
         <v>44428</v>
       </c>
       <c r="B1585">
@@ -23273,7 +23273,7 @@
     </row>
     <row r="1586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1586" s="1">
-        <f>A1585</f>
+        <f t="shared" si="30"/>
         <v>44428</v>
       </c>
       <c r="B1586">
@@ -23297,7 +23297,7 @@
     </row>
     <row r="1587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1587" s="1">
-        <f>A1586</f>
+        <f t="shared" si="30"/>
         <v>44428</v>
       </c>
       <c r="B1587">
@@ -23321,7 +23321,7 @@
     </row>
     <row r="1588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1588" s="1">
-        <f>A1587</f>
+        <f t="shared" si="30"/>
         <v>44428</v>
       </c>
       <c r="B1588">
@@ -23369,7 +23369,7 @@
     </row>
     <row r="1590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1590" s="1">
-        <f>A1589</f>
+        <f t="shared" ref="A1590:A1595" si="31">A1589</f>
         <v>44429</v>
       </c>
       <c r="B1590">
@@ -23393,7 +23393,7 @@
     </row>
     <row r="1591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1591" s="1">
-        <f>A1590</f>
+        <f t="shared" si="31"/>
         <v>44429</v>
       </c>
       <c r="B1591">
@@ -23417,7 +23417,7 @@
     </row>
     <row r="1592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1592" s="1">
-        <f>A1591</f>
+        <f t="shared" si="31"/>
         <v>44429</v>
       </c>
       <c r="B1592">
@@ -23441,7 +23441,7 @@
     </row>
     <row r="1593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1593" s="1">
-        <f>A1592</f>
+        <f t="shared" si="31"/>
         <v>44429</v>
       </c>
       <c r="B1593">
@@ -23465,7 +23465,7 @@
     </row>
     <row r="1594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1594" s="1">
-        <f>A1593</f>
+        <f t="shared" si="31"/>
         <v>44429</v>
       </c>
       <c r="B1594">
@@ -23489,7 +23489,7 @@
     </row>
     <row r="1595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1595" s="1">
-        <f>A1594</f>
+        <f t="shared" si="31"/>
         <v>44429</v>
       </c>
       <c r="B1595">
@@ -23537,7 +23537,7 @@
     </row>
     <row r="1597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1597" s="1">
-        <f>A1596</f>
+        <f t="shared" ref="A1597:A1603" si="32">A1596</f>
         <v>44430</v>
       </c>
       <c r="B1597">
@@ -23561,7 +23561,7 @@
     </row>
     <row r="1598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1598" s="1">
-        <f>A1597</f>
+        <f t="shared" si="32"/>
         <v>44430</v>
       </c>
       <c r="B1598">
@@ -23585,7 +23585,7 @@
     </row>
     <row r="1599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1599" s="1">
-        <f>A1598</f>
+        <f t="shared" si="32"/>
         <v>44430</v>
       </c>
       <c r="B1599">
@@ -23609,7 +23609,7 @@
     </row>
     <row r="1600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1600" s="1">
-        <f>A1599</f>
+        <f t="shared" si="32"/>
         <v>44430</v>
       </c>
       <c r="B1600">
@@ -23633,7 +23633,7 @@
     </row>
     <row r="1601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1601" s="1">
-        <f>A1600</f>
+        <f t="shared" si="32"/>
         <v>44430</v>
       </c>
       <c r="B1601">
@@ -23657,7 +23657,7 @@
     </row>
     <row r="1602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1602" s="1">
-        <f>A1601</f>
+        <f t="shared" si="32"/>
         <v>44430</v>
       </c>
       <c r="B1602">
@@ -23681,7 +23681,7 @@
     </row>
     <row r="1603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1603" s="1">
-        <f>A1602</f>
+        <f t="shared" si="32"/>
         <v>44430</v>
       </c>
       <c r="B1603">
@@ -24347,7 +24347,7 @@
         <v>86.3</v>
       </c>
       <c r="G1630">
-        <f>G1629</f>
+        <f t="shared" ref="G1630:G1640" si="33">G1629</f>
         <v>110</v>
       </c>
     </row>
@@ -24371,7 +24371,7 @@
         <v>86.3</v>
       </c>
       <c r="G1631">
-        <f>G1630</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24395,7 +24395,7 @@
         <v>85.2</v>
       </c>
       <c r="G1632">
-        <f>G1631</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24419,7 +24419,7 @@
         <v>85.2</v>
       </c>
       <c r="G1633">
-        <f>G1632</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24443,7 +24443,7 @@
         <v>85.2</v>
       </c>
       <c r="G1634">
-        <f>G1633</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24467,7 +24467,7 @@
         <v>85.2</v>
       </c>
       <c r="G1635">
-        <f>G1634</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24491,7 +24491,7 @@
         <v>85.2</v>
       </c>
       <c r="G1636">
-        <f>G1635</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24515,7 +24515,7 @@
         <v>85.2</v>
       </c>
       <c r="G1637">
-        <f>G1636</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24539,7 +24539,7 @@
         <v>85.2</v>
       </c>
       <c r="G1638">
-        <f>G1637</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24563,7 +24563,7 @@
         <v>85.2</v>
       </c>
       <c r="G1639">
-        <f>G1638</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24587,7 +24587,7 @@
         <v>84.8</v>
       </c>
       <c r="G1640">
-        <f>G1639</f>
+        <f t="shared" si="33"/>
         <v>110</v>
       </c>
     </row>
@@ -24635,7 +24635,7 @@
         <v>86.1</v>
       </c>
       <c r="G1642">
-        <f>G1641</f>
+        <f t="shared" ref="G1642:G1652" si="34">G1641</f>
         <v>111</v>
       </c>
     </row>
@@ -24659,7 +24659,7 @@
         <v>86.1</v>
       </c>
       <c r="G1643">
-        <f>G1642</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24683,7 +24683,7 @@
         <v>84.9</v>
       </c>
       <c r="G1644">
-        <f>G1643</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24707,7 +24707,7 @@
         <v>84.9</v>
       </c>
       <c r="G1645">
-        <f>G1644</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24731,7 +24731,7 @@
         <v>84.9</v>
       </c>
       <c r="G1646">
-        <f>G1645</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24755,7 +24755,7 @@
         <v>84.4</v>
       </c>
       <c r="G1647">
-        <f>G1646</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24779,7 +24779,7 @@
         <v>84.4</v>
       </c>
       <c r="G1648">
-        <f>G1647</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
         <v>84.4</v>
       </c>
       <c r="G1649">
-        <f>G1648</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24827,7 +24827,7 @@
         <v>84.7</v>
       </c>
       <c r="G1650">
-        <f>G1649</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24851,7 +24851,7 @@
         <v>84.7</v>
       </c>
       <c r="G1651">
-        <f>G1650</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24875,7 +24875,7 @@
         <v>84.7</v>
       </c>
       <c r="G1652">
-        <f>G1651</f>
+        <f t="shared" si="34"/>
         <v>111</v>
       </c>
     </row>
@@ -24923,7 +24923,7 @@
         <v>84.7</v>
       </c>
       <c r="G1654">
-        <f>G1653</f>
+        <f t="shared" ref="G1654:G1661" si="35">G1653</f>
         <v>112</v>
       </c>
     </row>
@@ -24947,7 +24947,7 @@
         <v>84.7</v>
       </c>
       <c r="G1655">
-        <f>G1654</f>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
     </row>
@@ -24971,7 +24971,7 @@
         <v>83.7</v>
       </c>
       <c r="G1656">
-        <f>G1655</f>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
     </row>
@@ -24995,7 +24995,7 @@
         <v>83.7</v>
       </c>
       <c r="G1657">
-        <f>G1656</f>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
     </row>
@@ -25019,7 +25019,7 @@
         <v>83.7</v>
       </c>
       <c r="G1658">
-        <f>G1657</f>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
     </row>
@@ -25043,7 +25043,7 @@
         <v>83.4</v>
       </c>
       <c r="G1659">
-        <f>G1658</f>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
     </row>
@@ -25067,7 +25067,7 @@
         <v>83.4</v>
       </c>
       <c r="G1660">
-        <f>G1659</f>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
     </row>
@@ -25091,7 +25091,7 @@
         <v>83.4</v>
       </c>
       <c r="G1661">
-        <f>G1660</f>
+        <f t="shared" si="35"/>
         <v>112</v>
       </c>
     </row>
@@ -25678,7 +25678,7 @@
     </row>
     <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1687" s="1">
-        <f>A1686</f>
+        <f t="shared" ref="A1687:A1694" si="36">A1686</f>
         <v>44513</v>
       </c>
       <c r="B1687">
@@ -25702,7 +25702,7 @@
     </row>
     <row r="1688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1688" s="1">
-        <f>A1687</f>
+        <f t="shared" si="36"/>
         <v>44513</v>
       </c>
       <c r="B1688">
@@ -25726,7 +25726,7 @@
     </row>
     <row r="1689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1689" s="1">
-        <f>A1688</f>
+        <f t="shared" si="36"/>
         <v>44513</v>
       </c>
       <c r="B1689">
@@ -25750,7 +25750,7 @@
     </row>
     <row r="1690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1690" s="1">
-        <f>A1689</f>
+        <f t="shared" si="36"/>
         <v>44513</v>
       </c>
       <c r="B1690">
@@ -25774,7 +25774,7 @@
     </row>
     <row r="1691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1691" s="1">
-        <f>A1690</f>
+        <f t="shared" si="36"/>
         <v>44513</v>
       </c>
       <c r="B1691">
@@ -25798,7 +25798,7 @@
     </row>
     <row r="1692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1692" s="1">
-        <f>A1691</f>
+        <f t="shared" si="36"/>
         <v>44513</v>
       </c>
       <c r="B1692">
@@ -25822,7 +25822,7 @@
     </row>
     <row r="1693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1693" s="1">
-        <f>A1692</f>
+        <f t="shared" si="36"/>
         <v>44513</v>
       </c>
       <c r="B1693">
@@ -25846,7 +25846,7 @@
     </row>
     <row r="1694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1694" s="1">
-        <f>A1693</f>
+        <f t="shared" si="36"/>
         <v>44513</v>
       </c>
       <c r="B1694">
@@ -26038,7 +26038,7 @@
     </row>
     <row r="1702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1702" s="1">
-        <f>A1701</f>
+        <f t="shared" ref="A1702:A1709" si="37">A1701</f>
         <v>44515</v>
       </c>
       <c r="B1702">
@@ -26062,7 +26062,7 @@
     </row>
     <row r="1703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1703" s="1">
-        <f>A1702</f>
+        <f t="shared" si="37"/>
         <v>44515</v>
       </c>
       <c r="B1703">
@@ -26086,7 +26086,7 @@
     </row>
     <row r="1704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1704" s="1">
-        <f>A1703</f>
+        <f t="shared" si="37"/>
         <v>44515</v>
       </c>
       <c r="B1704">
@@ -26110,7 +26110,7 @@
     </row>
     <row r="1705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1705" s="1">
-        <f>A1704</f>
+        <f t="shared" si="37"/>
         <v>44515</v>
       </c>
       <c r="B1705">
@@ -26134,7 +26134,7 @@
     </row>
     <row r="1706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1706" s="1">
-        <f>A1705</f>
+        <f t="shared" si="37"/>
         <v>44515</v>
       </c>
       <c r="B1706">
@@ -26158,7 +26158,7 @@
     </row>
     <row r="1707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1707" s="1">
-        <f>A1706</f>
+        <f t="shared" si="37"/>
         <v>44515</v>
       </c>
       <c r="B1707">
@@ -26182,7 +26182,7 @@
     </row>
     <row r="1708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1708" s="1">
-        <f>A1707</f>
+        <f t="shared" si="37"/>
         <v>44515</v>
       </c>
       <c r="B1708">
@@ -26206,7 +26206,7 @@
     </row>
     <row r="1709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1709" s="1">
-        <f>A1708</f>
+        <f t="shared" si="37"/>
         <v>44515</v>
       </c>
       <c r="B1709">
@@ -26614,7 +26614,7 @@
     </row>
     <row r="1726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
-        <f>A1725</f>
+        <f t="shared" ref="A1726:A1733" si="38">A1725</f>
         <v>44529</v>
       </c>
       <c r="B1726">
@@ -26638,7 +26638,7 @@
     </row>
     <row r="1727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
-        <f>A1726</f>
+        <f t="shared" si="38"/>
         <v>44529</v>
       </c>
       <c r="B1727">
@@ -26662,7 +26662,7 @@
     </row>
     <row r="1728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
-        <f>A1727</f>
+        <f t="shared" si="38"/>
         <v>44529</v>
       </c>
       <c r="B1728">
@@ -26686,7 +26686,7 @@
     </row>
     <row r="1729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
-        <f>A1728</f>
+        <f t="shared" si="38"/>
         <v>44529</v>
       </c>
       <c r="B1729">
@@ -26710,7 +26710,7 @@
     </row>
     <row r="1730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
-        <f>A1729</f>
+        <f t="shared" si="38"/>
         <v>44529</v>
       </c>
       <c r="B1730">
@@ -26734,7 +26734,7 @@
     </row>
     <row r="1731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
-        <f>A1730</f>
+        <f t="shared" si="38"/>
         <v>44529</v>
       </c>
       <c r="B1731">
@@ -26758,7 +26758,7 @@
     </row>
     <row r="1732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
-        <f>A1731</f>
+        <f t="shared" si="38"/>
         <v>44529</v>
       </c>
       <c r="B1732">
@@ -26782,7 +26782,7 @@
     </row>
     <row r="1733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
-        <f>A1732</f>
+        <f t="shared" si="38"/>
         <v>44529</v>
       </c>
       <c r="B1733">
@@ -28342,7 +28342,7 @@
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1798" s="1">
-        <f>A1797</f>
+        <f t="shared" ref="A1798:A1808" si="39">A1797</f>
         <v>44550</v>
       </c>
       <c r="B1798">
@@ -28366,7 +28366,7 @@
     </row>
     <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1799" s="1">
-        <f>A1798</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1799">
@@ -28390,7 +28390,7 @@
     </row>
     <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1800" s="1">
-        <f>A1799</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1800">
@@ -28414,7 +28414,7 @@
     </row>
     <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1801" s="1">
-        <f>A1800</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1801">
@@ -28438,7 +28438,7 @@
     </row>
     <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1802" s="1">
-        <f>A1801</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1802">
@@ -28462,7 +28462,7 @@
     </row>
     <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1803" s="1">
-        <f>A1802</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1803">
@@ -28486,7 +28486,7 @@
     </row>
     <row r="1804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1804" s="1">
-        <f>A1803</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1804">
@@ -28510,7 +28510,7 @@
     </row>
     <row r="1805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1805" s="1">
-        <f>A1804</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1805">
@@ -28534,7 +28534,7 @@
     </row>
     <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1806" s="1">
-        <f>A1805</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1806">
@@ -28558,7 +28558,7 @@
     </row>
     <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1807" s="1">
-        <f>A1806</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1807">
@@ -28582,7 +28582,7 @@
     </row>
     <row r="1808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1808" s="1">
-        <f>A1807</f>
+        <f t="shared" si="39"/>
         <v>44550</v>
       </c>
       <c r="B1808">
@@ -28774,7 +28774,7 @@
     </row>
     <row r="1816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1816" s="1">
-        <f>A1815</f>
+        <f t="shared" ref="A1816:A1823" si="40">A1815</f>
         <v>44553</v>
       </c>
       <c r="B1816">
@@ -28798,7 +28798,7 @@
     </row>
     <row r="1817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1817" s="1">
-        <f>A1816</f>
+        <f t="shared" si="40"/>
         <v>44553</v>
       </c>
       <c r="B1817">
@@ -28822,7 +28822,7 @@
     </row>
     <row r="1818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1818" s="1">
-        <f>A1817</f>
+        <f t="shared" si="40"/>
         <v>44553</v>
       </c>
       <c r="B1818">
@@ -28846,7 +28846,7 @@
     </row>
     <row r="1819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1819" s="1">
-        <f>A1818</f>
+        <f t="shared" si="40"/>
         <v>44553</v>
       </c>
       <c r="B1819">
@@ -28870,7 +28870,7 @@
     </row>
     <row r="1820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1820" s="1">
-        <f>A1819</f>
+        <f t="shared" si="40"/>
         <v>44553</v>
       </c>
       <c r="B1820">
@@ -28894,7 +28894,7 @@
     </row>
     <row r="1821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1821" s="1">
-        <f>A1820</f>
+        <f t="shared" si="40"/>
         <v>44553</v>
       </c>
       <c r="B1821">
@@ -28918,7 +28918,7 @@
     </row>
     <row r="1822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1822" s="1">
-        <f>A1821</f>
+        <f t="shared" si="40"/>
         <v>44553</v>
       </c>
       <c r="B1822">
@@ -28942,7 +28942,7 @@
     </row>
     <row r="1823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1823" s="1">
-        <f>A1822</f>
+        <f t="shared" si="40"/>
         <v>44553</v>
       </c>
       <c r="B1823">
@@ -29134,7 +29134,7 @@
     </row>
     <row r="1831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1831" s="1">
-        <f>A1830</f>
+        <f t="shared" ref="A1831:A1838" si="41">A1830</f>
         <v>44555</v>
       </c>
       <c r="B1831">
@@ -29158,7 +29158,7 @@
     </row>
     <row r="1832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1832" s="1">
-        <f>A1831</f>
+        <f t="shared" si="41"/>
         <v>44555</v>
       </c>
       <c r="B1832">
@@ -29182,7 +29182,7 @@
     </row>
     <row r="1833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1833" s="1">
-        <f>A1832</f>
+        <f t="shared" si="41"/>
         <v>44555</v>
       </c>
       <c r="B1833">
@@ -29206,7 +29206,7 @@
     </row>
     <row r="1834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1834" s="1">
-        <f>A1833</f>
+        <f t="shared" si="41"/>
         <v>44555</v>
       </c>
       <c r="B1834">
@@ -29230,7 +29230,7 @@
     </row>
     <row r="1835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1835" s="1">
-        <f>A1834</f>
+        <f t="shared" si="41"/>
         <v>44555</v>
       </c>
       <c r="B1835">
@@ -29254,7 +29254,7 @@
     </row>
     <row r="1836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1836" s="1">
-        <f>A1835</f>
+        <f t="shared" si="41"/>
         <v>44555</v>
       </c>
       <c r="B1836">
@@ -29278,7 +29278,7 @@
     </row>
     <row r="1837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1837" s="1">
-        <f>A1836</f>
+        <f t="shared" si="41"/>
         <v>44555</v>
       </c>
       <c r="B1837">
@@ -29302,7 +29302,7 @@
     </row>
     <row r="1838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1838" s="1">
-        <f>A1837</f>
+        <f t="shared" si="41"/>
         <v>44555</v>
       </c>
       <c r="B1838">
@@ -29494,7 +29494,7 @@
     </row>
     <row r="1846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1846" s="1">
-        <f>A1845</f>
+        <f t="shared" ref="A1846:A1853" si="42">A1845</f>
         <v>44557</v>
       </c>
       <c r="B1846">
@@ -29518,7 +29518,7 @@
     </row>
     <row r="1847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1847" s="1">
-        <f>A1846</f>
+        <f t="shared" si="42"/>
         <v>44557</v>
       </c>
       <c r="B1847">
@@ -29542,7 +29542,7 @@
     </row>
     <row r="1848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1848" s="1">
-        <f>A1847</f>
+        <f t="shared" si="42"/>
         <v>44557</v>
       </c>
       <c r="B1848">
@@ -29566,7 +29566,7 @@
     </row>
     <row r="1849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1849" s="1">
-        <f>A1848</f>
+        <f t="shared" si="42"/>
         <v>44557</v>
       </c>
       <c r="B1849">
@@ -29590,7 +29590,7 @@
     </row>
     <row r="1850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1850" s="1">
-        <f>A1849</f>
+        <f t="shared" si="42"/>
         <v>44557</v>
       </c>
       <c r="B1850">
@@ -29614,7 +29614,7 @@
     </row>
     <row r="1851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1851" s="1">
-        <f>A1850</f>
+        <f t="shared" si="42"/>
         <v>44557</v>
       </c>
       <c r="B1851">
@@ -29638,7 +29638,7 @@
     </row>
     <row r="1852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1852" s="1">
-        <f>A1851</f>
+        <f t="shared" si="42"/>
         <v>44557</v>
       </c>
       <c r="B1852">
@@ -29662,7 +29662,7 @@
     </row>
     <row r="1853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1853" s="1">
-        <f>A1852</f>
+        <f t="shared" si="42"/>
         <v>44557</v>
       </c>
       <c r="B1853">
@@ -29710,7 +29710,7 @@
     </row>
     <row r="1855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1855" s="1">
-        <f>A1854</f>
+        <f t="shared" ref="A1855:A1868" si="43">A1854</f>
         <v>44558</v>
       </c>
       <c r="B1855">
@@ -29734,7 +29734,7 @@
     </row>
     <row r="1856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1856" s="1">
-        <f>A1855</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1856">
@@ -29758,7 +29758,7 @@
     </row>
     <row r="1857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1857" s="1">
-        <f>A1856</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1857">
@@ -29782,7 +29782,7 @@
     </row>
     <row r="1858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1858" s="1">
-        <f>A1857</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1858">
@@ -29806,7 +29806,7 @@
     </row>
     <row r="1859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1859" s="1">
-        <f>A1858</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1859">
@@ -29830,7 +29830,7 @@
     </row>
     <row r="1860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1860" s="1">
-        <f>A1859</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1860">
@@ -29854,7 +29854,7 @@
     </row>
     <row r="1861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1861" s="1">
-        <f>A1860</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1861">
@@ -29878,7 +29878,7 @@
     </row>
     <row r="1862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1862" s="1">
-        <f>A1861</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1862">
@@ -29902,7 +29902,7 @@
     </row>
     <row r="1863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1863" s="1">
-        <f>A1862</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1863">
@@ -29926,7 +29926,7 @@
     </row>
     <row r="1864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1864" s="1">
-        <f>A1863</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1864">
@@ -29950,7 +29950,7 @@
     </row>
     <row r="1865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1865" s="1">
-        <f>A1864</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1865">
@@ -29974,7 +29974,7 @@
     </row>
     <row r="1866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1866" s="1">
-        <f>A1865</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1866">
@@ -29998,7 +29998,7 @@
     </row>
     <row r="1867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1867" s="1">
-        <f>A1866</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1867">
@@ -30022,7 +30022,7 @@
     </row>
     <row r="1868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1868" s="1">
-        <f>A1867</f>
+        <f t="shared" si="43"/>
         <v>44558</v>
       </c>
       <c r="B1868">
@@ -30070,7 +30070,7 @@
     </row>
     <row r="1870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1870" s="1">
-        <f>A1869</f>
+        <f t="shared" ref="A1870:A1877" si="44">A1869</f>
         <v>44559</v>
       </c>
       <c r="B1870">
@@ -30094,7 +30094,7 @@
     </row>
     <row r="1871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1871" s="1">
-        <f>A1870</f>
+        <f t="shared" si="44"/>
         <v>44559</v>
       </c>
       <c r="B1871">
@@ -30118,7 +30118,7 @@
     </row>
     <row r="1872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1872" s="1">
-        <f>A1871</f>
+        <f t="shared" si="44"/>
         <v>44559</v>
       </c>
       <c r="B1872">
@@ -30142,7 +30142,7 @@
     </row>
     <row r="1873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1873" s="1">
-        <f>A1872</f>
+        <f t="shared" si="44"/>
         <v>44559</v>
       </c>
       <c r="B1873">
@@ -30166,7 +30166,7 @@
     </row>
     <row r="1874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1874" s="1">
-        <f>A1873</f>
+        <f t="shared" si="44"/>
         <v>44559</v>
       </c>
       <c r="B1874">
@@ -30190,7 +30190,7 @@
     </row>
     <row r="1875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1875" s="1">
-        <f>A1874</f>
+        <f t="shared" si="44"/>
         <v>44559</v>
       </c>
       <c r="B1875">
@@ -30214,7 +30214,7 @@
     </row>
     <row r="1876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1876" s="1">
-        <f>A1875</f>
+        <f t="shared" si="44"/>
         <v>44559</v>
       </c>
       <c r="B1876">
@@ -30238,7 +30238,7 @@
     </row>
     <row r="1877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1877" s="1">
-        <f>A1876</f>
+        <f t="shared" si="44"/>
         <v>44559</v>
       </c>
       <c r="B1877">
@@ -30286,7 +30286,7 @@
     </row>
     <row r="1879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1879" s="1">
-        <f>A1878</f>
+        <f t="shared" ref="A1879:A1886" si="45">A1878</f>
         <v>44560</v>
       </c>
       <c r="B1879">
@@ -30310,7 +30310,7 @@
     </row>
     <row r="1880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1880" s="1">
-        <f>A1879</f>
+        <f t="shared" si="45"/>
         <v>44560</v>
       </c>
       <c r="B1880">
@@ -30334,7 +30334,7 @@
     </row>
     <row r="1881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1881" s="1">
-        <f>A1880</f>
+        <f t="shared" si="45"/>
         <v>44560</v>
       </c>
       <c r="B1881">
@@ -30358,7 +30358,7 @@
     </row>
     <row r="1882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1882" s="1">
-        <f>A1881</f>
+        <f t="shared" si="45"/>
         <v>44560</v>
       </c>
       <c r="B1882">
@@ -30382,7 +30382,7 @@
     </row>
     <row r="1883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1883" s="1">
-        <f>A1882</f>
+        <f t="shared" si="45"/>
         <v>44560</v>
       </c>
       <c r="B1883">
@@ -30406,7 +30406,7 @@
     </row>
     <row r="1884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1884" s="1">
-        <f>A1883</f>
+        <f t="shared" si="45"/>
         <v>44560</v>
       </c>
       <c r="B1884">
@@ -30430,7 +30430,7 @@
     </row>
     <row r="1885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1885" s="1">
-        <f>A1884</f>
+        <f t="shared" si="45"/>
         <v>44560</v>
       </c>
       <c r="B1885">
@@ -30454,7 +30454,7 @@
     </row>
     <row r="1886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1886" s="1">
-        <f>A1885</f>
+        <f t="shared" si="45"/>
         <v>44560</v>
       </c>
       <c r="B1886">
@@ -30502,7 +30502,7 @@
     </row>
     <row r="1888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1888" s="1">
-        <f>A1887</f>
+        <f t="shared" ref="A1888:A1901" si="46">A1887</f>
         <v>44561</v>
       </c>
       <c r="B1888">
@@ -30526,7 +30526,7 @@
     </row>
     <row r="1889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1889" s="1">
-        <f>A1888</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1889">
@@ -30550,7 +30550,7 @@
     </row>
     <row r="1890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1890" s="1">
-        <f>A1889</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1890">
@@ -30574,7 +30574,7 @@
     </row>
     <row r="1891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1891" s="1">
-        <f>A1890</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1891">
@@ -30598,7 +30598,7 @@
     </row>
     <row r="1892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1892" s="1">
-        <f>A1891</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1892">
@@ -30622,7 +30622,7 @@
     </row>
     <row r="1893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1893" s="1">
-        <f>A1892</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1893">
@@ -30646,7 +30646,7 @@
     </row>
     <row r="1894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1894" s="1">
-        <f>A1893</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1894">
@@ -30670,7 +30670,7 @@
     </row>
     <row r="1895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1895" s="1">
-        <f>A1894</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1895">
@@ -30694,7 +30694,7 @@
     </row>
     <row r="1896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1896" s="1">
-        <f>A1895</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1896">
@@ -30718,7 +30718,7 @@
     </row>
     <row r="1897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1897" s="1">
-        <f>A1896</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1897">
@@ -30742,7 +30742,7 @@
     </row>
     <row r="1898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1898" s="1">
-        <f>A1897</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1898">
@@ -30766,7 +30766,7 @@
     </row>
     <row r="1899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1899" s="1">
-        <f>A1898</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1899">
@@ -30790,7 +30790,7 @@
     </row>
     <row r="1900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1900" s="1">
-        <f>A1899</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1900">
@@ -30814,7 +30814,7 @@
     </row>
     <row r="1901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1901" s="1">
-        <f>A1900</f>
+        <f t="shared" si="46"/>
         <v>44561</v>
       </c>
       <c r="B1901">
@@ -33834,7 +33834,7 @@
     </row>
     <row r="2030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2030" s="1">
-        <f>A2029</f>
+        <f t="shared" ref="A2030:A2035" si="47">A2029</f>
         <v>44739</v>
       </c>
       <c r="B2030">
@@ -33858,7 +33858,7 @@
     </row>
     <row r="2031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2031" s="1">
-        <f>A2030</f>
+        <f t="shared" si="47"/>
         <v>44739</v>
       </c>
       <c r="B2031">
@@ -33882,7 +33882,7 @@
     </row>
     <row r="2032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2032" s="1">
-        <f>A2031</f>
+        <f t="shared" si="47"/>
         <v>44739</v>
       </c>
       <c r="B2032">
@@ -33906,7 +33906,7 @@
     </row>
     <row r="2033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2033" s="1">
-        <f>A2032</f>
+        <f t="shared" si="47"/>
         <v>44739</v>
       </c>
       <c r="B2033">
@@ -33930,7 +33930,7 @@
     </row>
     <row r="2034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2034" s="1">
-        <f>A2033</f>
+        <f t="shared" si="47"/>
         <v>44739</v>
       </c>
       <c r="B2034">
@@ -33954,7 +33954,7 @@
     </row>
     <row r="2035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2035" s="1">
-        <f>A2034</f>
+        <f t="shared" si="47"/>
         <v>44739</v>
       </c>
       <c r="B2035">
@@ -34098,7 +34098,7 @@
     </row>
     <row r="2041" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2041" s="1">
-        <f>A2040</f>
+        <f t="shared" ref="A2041:A2047" si="48">A2040</f>
         <v>44741</v>
       </c>
       <c r="B2041">
@@ -34122,7 +34122,7 @@
     </row>
     <row r="2042" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2042" s="1">
-        <f>A2041</f>
+        <f t="shared" si="48"/>
         <v>44741</v>
       </c>
       <c r="B2042">
@@ -34146,7 +34146,7 @@
     </row>
     <row r="2043" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2043" s="1">
-        <f>A2042</f>
+        <f t="shared" si="48"/>
         <v>44741</v>
       </c>
       <c r="B2043">
@@ -34170,7 +34170,7 @@
     </row>
     <row r="2044" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2044" s="1">
-        <f>A2043</f>
+        <f t="shared" si="48"/>
         <v>44741</v>
       </c>
       <c r="B2044">
@@ -34194,7 +34194,7 @@
     </row>
     <row r="2045" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2045" s="1">
-        <f>A2044</f>
+        <f t="shared" si="48"/>
         <v>44741</v>
       </c>
       <c r="B2045">
@@ -34218,7 +34218,7 @@
     </row>
     <row r="2046" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2046" s="1">
-        <f>A2045</f>
+        <f t="shared" si="48"/>
         <v>44741</v>
       </c>
       <c r="B2046">
@@ -34242,7 +34242,7 @@
     </row>
     <row r="2047" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2047" s="1">
-        <f>A2046</f>
+        <f t="shared" si="48"/>
         <v>44741</v>
       </c>
       <c r="B2047">
@@ -34290,7 +34290,7 @@
     </row>
     <row r="2049" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2049" s="1">
-        <f>A2048</f>
+        <f t="shared" ref="A2049:A2055" si="49">A2048</f>
         <v>44742</v>
       </c>
       <c r="B2049">
@@ -34314,7 +34314,7 @@
     </row>
     <row r="2050" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2050" s="1">
-        <f>A2049</f>
+        <f t="shared" si="49"/>
         <v>44742</v>
       </c>
       <c r="B2050">
@@ -34338,7 +34338,7 @@
     </row>
     <row r="2051" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2051" s="1">
-        <f>A2050</f>
+        <f t="shared" si="49"/>
         <v>44742</v>
       </c>
       <c r="B2051">
@@ -34362,7 +34362,7 @@
     </row>
     <row r="2052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2052" s="1">
-        <f>A2051</f>
+        <f t="shared" si="49"/>
         <v>44742</v>
       </c>
       <c r="B2052">
@@ -34386,7 +34386,7 @@
     </row>
     <row r="2053" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2053" s="1">
-        <f>A2052</f>
+        <f t="shared" si="49"/>
         <v>44742</v>
       </c>
       <c r="B2053">
@@ -34410,7 +34410,7 @@
     </row>
     <row r="2054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2054" s="1">
-        <f>A2053</f>
+        <f t="shared" si="49"/>
         <v>44742</v>
       </c>
       <c r="B2054">
@@ -34434,7 +34434,7 @@
     </row>
     <row r="2055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2055" s="1">
-        <f>A2054</f>
+        <f t="shared" si="49"/>
         <v>44742</v>
       </c>
       <c r="B2055">
@@ -36709,6 +36709,346 @@
       </c>
       <c r="F2164" s="4">
         <v>86.9</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2165" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B2165">
+        <v>8</v>
+      </c>
+      <c r="C2165">
+        <v>36</v>
+      </c>
+      <c r="D2165">
+        <v>10</v>
+      </c>
+      <c r="E2165">
+        <v>36</v>
+      </c>
+      <c r="F2165" s="4">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2166" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B2166">
+        <v>8</v>
+      </c>
+      <c r="C2166">
+        <v>45</v>
+      </c>
+      <c r="D2166">
+        <v>12</v>
+      </c>
+      <c r="E2166">
+        <v>5</v>
+      </c>
+      <c r="F2166" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2167" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B2167">
+        <v>9</v>
+      </c>
+      <c r="C2167">
+        <v>35</v>
+      </c>
+      <c r="D2167">
+        <v>16</v>
+      </c>
+      <c r="E2167">
+        <v>55</v>
+      </c>
+      <c r="F2167" s="4">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2168" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B2168">
+        <v>8</v>
+      </c>
+      <c r="C2168">
+        <v>10</v>
+      </c>
+      <c r="D2168">
+        <v>10</v>
+      </c>
+      <c r="E2168">
+        <v>10</v>
+      </c>
+      <c r="F2168" s="4">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2169" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B2169">
+        <v>8</v>
+      </c>
+      <c r="C2169">
+        <v>5</v>
+      </c>
+      <c r="D2169">
+        <v>9</v>
+      </c>
+      <c r="E2169">
+        <v>0</v>
+      </c>
+      <c r="F2169" s="4">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2170" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B2170">
+        <v>8</v>
+      </c>
+      <c r="C2170">
+        <v>20</v>
+      </c>
+      <c r="D2170">
+        <v>11</v>
+      </c>
+      <c r="E2170">
+        <v>20</v>
+      </c>
+      <c r="F2170" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2171" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B2171">
+        <v>13</v>
+      </c>
+      <c r="C2171">
+        <v>7</v>
+      </c>
+      <c r="D2171">
+        <v>2</v>
+      </c>
+      <c r="E2171">
+        <v>0</v>
+      </c>
+      <c r="F2171" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2172" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B2172">
+        <v>20</v>
+      </c>
+      <c r="C2172">
+        <v>15</v>
+      </c>
+      <c r="D2172">
+        <v>2</v>
+      </c>
+      <c r="E2172">
+        <v>10</v>
+      </c>
+      <c r="F2172" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2173" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B2173">
+        <v>5</v>
+      </c>
+      <c r="C2173">
+        <v>45</v>
+      </c>
+      <c r="D2173">
+        <v>7</v>
+      </c>
+      <c r="E2173">
+        <v>45</v>
+      </c>
+      <c r="F2173" s="4">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2174" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B2174">
+        <v>10</v>
+      </c>
+      <c r="C2174">
+        <v>45</v>
+      </c>
+      <c r="D2174">
+        <v>12</v>
+      </c>
+      <c r="E2174">
+        <v>45</v>
+      </c>
+      <c r="F2174" s="4">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2175" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B2175">
+        <v>10</v>
+      </c>
+      <c r="C2175">
+        <v>12</v>
+      </c>
+      <c r="D2175">
+        <v>10</v>
+      </c>
+      <c r="E2175">
+        <v>12</v>
+      </c>
+      <c r="F2175" s="4">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2176" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B2176">
+        <v>22</v>
+      </c>
+      <c r="C2176">
+        <v>10</v>
+      </c>
+      <c r="D2176">
+        <v>3</v>
+      </c>
+      <c r="E2176">
+        <v>40</v>
+      </c>
+      <c r="F2176" s="4">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2177" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B2177">
+        <v>7</v>
+      </c>
+      <c r="C2177">
+        <v>33</v>
+      </c>
+      <c r="D2177">
+        <v>13</v>
+      </c>
+      <c r="E2177">
+        <v>3</v>
+      </c>
+      <c r="F2177" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2178" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B2178">
+        <v>19</v>
+      </c>
+      <c r="C2178">
+        <v>52</v>
+      </c>
+      <c r="D2178">
+        <v>4</v>
+      </c>
+      <c r="E2178">
+        <v>52</v>
+      </c>
+      <c r="F2178" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2179" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B2179">
+        <v>7</v>
+      </c>
+      <c r="C2179">
+        <v>57</v>
+      </c>
+      <c r="D2179">
+        <v>16</v>
+      </c>
+      <c r="E2179">
+        <v>57</v>
+      </c>
+      <c r="F2179" s="4">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2180" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B2180">
+        <v>7</v>
+      </c>
+      <c r="C2180">
+        <v>1</v>
+      </c>
+      <c r="D2180">
+        <v>9</v>
+      </c>
+      <c r="E2180">
+        <v>1</v>
+      </c>
+      <c r="F2180" s="4">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2181" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B2181">
+        <v>6</v>
+      </c>
+      <c r="C2181">
+        <v>23</v>
+      </c>
+      <c r="D2181">
+        <v>7</v>
+      </c>
+      <c r="E2181">
+        <v>23</v>
+      </c>
+      <c r="F2181" s="4">
+        <v>86.1</v>
       </c>
     </row>
   </sheetData>
@@ -36722,26 +37062,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a95d4ba5-ac50-4ccb-8f38-68d250b34105" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3073c576-dbcc-4dca-a8e5-ccf7a0688d93">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8197e89490dc663f80df425c475dfb63">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" xmlns:ns3="a95d4ba5-ac50-4ccb-8f38-68d250b34105" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57d494f76f6743b951aebebbdbb44cb6" ns2:_="" ns3:_="">
     <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
@@ -36956,10 +37276,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a95d4ba5-ac50-4ccb-8f38-68d250b34105" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3073c576-dbcc-4dca-a8e5-ccf7a0688d93">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37357D95-8B77-409A-BAF8-E831BCA8A58F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
+    <ds:schemaRef ds:uri="a95d4ba5-ac50-4ccb-8f38-68d250b34105"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36976,20 +37327,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37357D95-8B77-409A-BAF8-E831BCA8A58F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
-    <ds:schemaRef ds:uri="a95d4ba5-ac50-4ccb-8f38-68d250b34105"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/martysweight.xlsx
+++ b/inst/extdata/martysweight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrkmartongmailcom.sharepoint.com/sites/-/Shared Documents/General/Stats_R/R/Martysweight/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1454" documentId="13_ncr:1_{F102E521-F1A2-407A-A6A3-36972B24CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{745A26F0-44F6-4BA8-934D-7E3F0D636B70}"/>
+  <xr:revisionPtr revIDLastSave="1484" documentId="13_ncr:1_{F102E521-F1A2-407A-A6A3-36972B24CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC9EF6D-6C1D-4F1A-990E-DDF6876C1B63}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC665D15-152F-4F01-8A80-E2816C212E79}"/>
   </bookViews>
@@ -470,11 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39223600-1D15-461E-B723-4E7F83AA1860}">
-  <dimension ref="A1:G2181"/>
+  <dimension ref="A1:G2186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2182" sqref="F2182"/>
+      <selection pane="bottomLeft" activeCell="F2187" sqref="F2187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37048,6 +37048,106 @@
         <v>23</v>
       </c>
       <c r="F2181" s="4">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2182" s="1">
+        <v>45269</v>
+      </c>
+      <c r="B2182">
+        <v>10</v>
+      </c>
+      <c r="C2182">
+        <v>10</v>
+      </c>
+      <c r="D2182">
+        <v>0</v>
+      </c>
+      <c r="E2182">
+        <v>10</v>
+      </c>
+      <c r="F2182" s="4">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2183" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B2183">
+        <v>21</v>
+      </c>
+      <c r="C2183">
+        <v>25</v>
+      </c>
+      <c r="D2183">
+        <v>1</v>
+      </c>
+      <c r="E2183">
+        <v>0</v>
+      </c>
+      <c r="F2183" s="4">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2184" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B2184">
+        <v>18</v>
+      </c>
+      <c r="C2184">
+        <v>35</v>
+      </c>
+      <c r="D2184">
+        <v>0</v>
+      </c>
+      <c r="E2184">
+        <v>10</v>
+      </c>
+      <c r="F2184" s="4">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2185" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B2185">
+        <v>8</v>
+      </c>
+      <c r="C2185">
+        <v>10</v>
+      </c>
+      <c r="D2185">
+        <v>13</v>
+      </c>
+      <c r="E2185">
+        <v>45</v>
+      </c>
+      <c r="F2185" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2186" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B2186">
+        <v>12</v>
+      </c>
+      <c r="C2186">
+        <v>25</v>
+      </c>
+      <c r="D2186">
+        <v>4</v>
+      </c>
+      <c r="E2186">
+        <v>0</v>
+      </c>
+      <c r="F2186" s="4">
         <v>86.1</v>
       </c>
     </row>
@@ -37062,6 +37162,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a95d4ba5-ac50-4ccb-8f38-68d250b34105" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3073c576-dbcc-4dca-a8e5-ccf7a0688d93">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0ADBC3A86B10A4085B52F181C274AA0" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8197e89490dc663f80df425c475dfb63">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3073c576-dbcc-4dca-a8e5-ccf7a0688d93" xmlns:ns3="a95d4ba5-ac50-4ccb-8f38-68d250b34105" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57d494f76f6743b951aebebbdbb44cb6" ns2:_="" ns3:_="">
     <xsd:import namespace="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
@@ -37276,27 +37396,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a95d4ba5-ac50-4ccb-8f38-68d250b34105" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3073c576-dbcc-4dca-a8e5-ccf7a0688d93">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a95d4ba5-ac50-4ccb-8f38-68d250b34105"/>
+    <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37357D95-8B77-409A-BAF8-E831BCA8A58F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37313,23 +37432,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E55020-46B3-40ED-BFB8-4929986AA94A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a95d4ba5-ac50-4ccb-8f38-68d250b34105"/>
-    <ds:schemaRef ds:uri="3073c576-dbcc-4dca-a8e5-ccf7a0688d93"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A0FCBE-B2C0-4543-8CC5-CB84272EA876}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>